--- a/temperature_data.xlsx
+++ b/temperature_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb829048448cf286/Documenti/GitHub/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="777" documentId="8_{4E5F954D-28B4-4E76-871B-906B9CA53746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{810A9BDD-430F-4015-997C-D3504522F47C}"/>
+  <xr:revisionPtr revIDLastSave="949" documentId="8_{4E5F954D-28B4-4E76-871B-906B9CA53746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1431990D-ED00-468A-9BB4-F858787DA732}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F0636C89-0B81-4ACC-A9C5-CB99DC8F8EB4}"/>
   </bookViews>
@@ -524,16 +524,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -591,13 +583,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -918,15 +909,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8620FE94-B53D-4005-90A3-934BF137EA51}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -937,167 +928,166 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-171.5</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>3732</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-170.5</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>6558</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-169.5</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>4961</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-168.5</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>5162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-167.5</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>4184</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-166.5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>3588</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-165.5</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>4220</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-164.5</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>3469</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-163.5</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>3345</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-162.5</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>2875</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-161.5</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2010</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-160.5</v>
       </c>
       <c r="B13">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>1182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-159.5</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>1286</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-158.5</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>764</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-157.5</v>
       </c>
       <c r="B16">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>670</v>
@@ -1108,7 +1098,7 @@
         <v>-156.5</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>373</v>
@@ -1119,7 +1109,7 @@
         <v>-155.5</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>312</v>
@@ -1130,7 +1120,7 @@
         <v>-154.5</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>134</v>
@@ -1141,7 +1131,7 @@
         <v>-153.5</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>89</v>
@@ -1152,7 +1142,7 @@
         <v>-152.5</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>27</v>
@@ -1196,7 +1186,7 @@
         <v>-148.5</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>45</v>
@@ -1207,7 +1197,7 @@
         <v>-147.5</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>18</v>
@@ -1218,7 +1208,7 @@
         <v>-146.5</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -1229,7 +1219,7 @@
         <v>-145.5</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>60</v>
@@ -1240,7 +1230,7 @@
         <v>-144.5</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>82</v>
@@ -1251,7 +1241,7 @@
         <v>-143.5</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>64</v>
@@ -1262,7 +1252,7 @@
         <v>-142.5</v>
       </c>
       <c r="B31">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>95</v>
@@ -1273,7 +1263,7 @@
         <v>-141.5</v>
       </c>
       <c r="B32">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>95</v>
@@ -1284,7 +1274,7 @@
         <v>-140.5</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>96</v>
@@ -1295,7 +1285,7 @@
         <v>-139.5</v>
       </c>
       <c r="B34">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>80</v>
@@ -1306,7 +1296,7 @@
         <v>-138.5</v>
       </c>
       <c r="B35">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>77</v>
@@ -1317,7 +1307,7 @@
         <v>-137.5</v>
       </c>
       <c r="B36">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C36">
         <v>68</v>
@@ -1328,7 +1318,7 @@
         <v>-136.5</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C37">
         <v>53</v>
@@ -1339,7 +1329,7 @@
         <v>-135.5</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>54</v>
@@ -1350,7 +1340,7 @@
         <v>-134.5</v>
       </c>
       <c r="B39">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>34</v>
@@ -1361,7 +1351,7 @@
         <v>-133.5</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>31</v>
@@ -1372,7 +1362,7 @@
         <v>-132.5</v>
       </c>
       <c r="B41">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>20</v>
@@ -1383,7 +1373,7 @@
         <v>-131.5</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C42">
         <v>21</v>
@@ -1394,7 +1384,7 @@
         <v>-130.5</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -1405,7 +1395,7 @@
         <v>-129.5</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>9</v>
@@ -1416,7 +1406,7 @@
         <v>-128.5</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1427,7 +1417,7 @@
         <v>-127.5</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1796,7 +1786,7 @@
   <dimension ref="A1:Q302"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="Q302" sqref="K1:Q302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1898,7 +1888,8 @@
         <v>3730</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <f>COUNTIF(K:K,K2)</f>
+        <v>2</v>
       </c>
       <c r="Q2">
         <v>3732</v>
@@ -1951,7 +1942,8 @@
         <v>2</v>
       </c>
       <c r="P3">
-        <v>12</v>
+        <f t="shared" ref="P3:P66" si="0">COUNTIF(K:K,K3)</f>
+        <v>2</v>
       </c>
       <c r="Q3">
         <v>3732</v>
@@ -2004,7 +1996,8 @@
         <v>3193</v>
       </c>
       <c r="P4">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="Q4">
         <v>6558</v>
@@ -2057,7 +2050,8 @@
         <v>3348</v>
       </c>
       <c r="P5">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="Q5">
         <v>6558</v>
@@ -2110,7 +2104,8 @@
         <v>16</v>
       </c>
       <c r="P6">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="Q6">
         <v>6558</v>
@@ -2163,7 +2158,8 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="Q7">
         <v>6558</v>
@@ -2216,7 +2212,8 @@
         <v>2580</v>
       </c>
       <c r="P8">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="Q8">
         <v>4961</v>
@@ -2269,7 +2266,8 @@
         <v>2319</v>
       </c>
       <c r="P9">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="Q9">
         <v>4961</v>
@@ -2322,7 +2320,8 @@
         <v>50</v>
       </c>
       <c r="P10">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="Q10">
         <v>4961</v>
@@ -2375,7 +2374,8 @@
         <v>12</v>
       </c>
       <c r="P11">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="Q11">
         <v>4961</v>
@@ -2428,7 +2428,8 @@
         <v>2076</v>
       </c>
       <c r="P12">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q12">
         <v>5162</v>
@@ -2481,7 +2482,8 @@
         <v>1394</v>
       </c>
       <c r="P13">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q13">
         <v>5162</v>
@@ -2534,7 +2536,8 @@
         <v>1628</v>
       </c>
       <c r="P14">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q14">
         <v>5162</v>
@@ -2587,7 +2590,8 @@
         <v>56</v>
       </c>
       <c r="P15">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q15">
         <v>5162</v>
@@ -2640,7 +2644,8 @@
         <v>7</v>
       </c>
       <c r="P16">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q16">
         <v>5162</v>
@@ -2693,7 +2698,8 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q17">
         <v>5162</v>
@@ -2746,7 +2752,8 @@
         <v>1357</v>
       </c>
       <c r="P18">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q18">
         <v>4184</v>
@@ -2799,7 +2806,8 @@
         <v>1489</v>
       </c>
       <c r="P19">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q19">
         <v>4184</v>
@@ -2852,7 +2860,8 @@
         <v>1297</v>
       </c>
       <c r="P20">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q20">
         <v>4184</v>
@@ -2905,7 +2914,8 @@
         <v>34</v>
       </c>
       <c r="P21">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q21">
         <v>4184</v>
@@ -2958,7 +2968,8 @@
         <v>4</v>
       </c>
       <c r="P22">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q22">
         <v>4184</v>
@@ -3011,7 +3022,8 @@
         <v>3</v>
       </c>
       <c r="P23">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q23">
         <v>4184</v>
@@ -3064,7 +3076,8 @@
         <v>1252</v>
       </c>
       <c r="P24">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q24">
         <v>3588</v>
@@ -3117,7 +3130,8 @@
         <v>1142</v>
       </c>
       <c r="P25">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q25">
         <v>3588</v>
@@ -3170,7 +3184,8 @@
         <v>1176</v>
       </c>
       <c r="P26">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q26">
         <v>3588</v>
@@ -3223,7 +3238,8 @@
         <v>8</v>
       </c>
       <c r="P27">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q27">
         <v>3588</v>
@@ -3276,7 +3292,8 @@
         <v>6</v>
       </c>
       <c r="P28">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q28">
         <v>3588</v>
@@ -3329,7 +3346,8 @@
         <v>4</v>
       </c>
       <c r="P29">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q29">
         <v>3588</v>
@@ -3382,7 +3400,8 @@
         <v>1023</v>
       </c>
       <c r="P30">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="Q30">
         <v>4220</v>
@@ -3435,7 +3454,8 @@
         <v>951</v>
       </c>
       <c r="P31">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="Q31">
         <v>4220</v>
@@ -3488,7 +3508,8 @@
         <v>994</v>
       </c>
       <c r="P32">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="Q32">
         <v>4220</v>
@@ -3541,7 +3562,8 @@
         <v>1209</v>
       </c>
       <c r="P33">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="Q33">
         <v>4220</v>
@@ -3594,7 +3616,8 @@
         <v>7</v>
       </c>
       <c r="P34">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="Q34">
         <v>4220</v>
@@ -3647,7 +3670,8 @@
         <v>34</v>
       </c>
       <c r="P35">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="Q35">
         <v>4220</v>
@@ -3700,7 +3724,8 @@
         <v>2</v>
       </c>
       <c r="P36">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="Q36">
         <v>4220</v>
@@ -3753,7 +3778,8 @@
         <v>916</v>
       </c>
       <c r="P37">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="Q37">
         <v>3469</v>
@@ -3806,7 +3832,8 @@
         <v>679</v>
       </c>
       <c r="P38">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="Q38">
         <v>3469</v>
@@ -3859,7 +3886,8 @@
         <v>974</v>
       </c>
       <c r="P39">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="Q39">
         <v>3469</v>
@@ -3912,7 +3940,8 @@
         <v>839</v>
       </c>
       <c r="P40">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="Q40">
         <v>3469</v>
@@ -3965,7 +3994,8 @@
         <v>33</v>
       </c>
       <c r="P41">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="Q41">
         <v>3469</v>
@@ -4018,7 +4048,8 @@
         <v>13</v>
       </c>
       <c r="P42">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="Q42">
         <v>3469</v>
@@ -4071,7 +4102,8 @@
         <v>12</v>
       </c>
       <c r="P43">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="Q43">
         <v>3469</v>
@@ -4124,7 +4156,8 @@
         <v>3</v>
       </c>
       <c r="P44">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="Q44">
         <v>3469</v>
@@ -4177,7 +4210,8 @@
         <v>762</v>
       </c>
       <c r="P45">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="Q45">
         <v>3345</v>
@@ -4230,7 +4264,8 @@
         <v>520</v>
       </c>
       <c r="P46">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="Q46">
         <v>3345</v>
@@ -4283,7 +4318,8 @@
         <v>645</v>
       </c>
       <c r="P47">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="Q47">
         <v>3345</v>
@@ -4336,7 +4372,8 @@
         <v>616</v>
       </c>
       <c r="P48">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="Q48">
         <v>3345</v>
@@ -4389,7 +4426,8 @@
         <v>727</v>
       </c>
       <c r="P49">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="Q49">
         <v>3345</v>
@@ -4442,7 +4480,8 @@
         <v>6</v>
       </c>
       <c r="P50">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="Q50">
         <v>3345</v>
@@ -4495,7 +4534,8 @@
         <v>24</v>
       </c>
       <c r="P51">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="Q51">
         <v>3345</v>
@@ -4548,7 +4588,8 @@
         <v>40</v>
       </c>
       <c r="P52">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="Q52">
         <v>3345</v>
@@ -4601,7 +4642,8 @@
         <v>2</v>
       </c>
       <c r="P53">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="Q53">
         <v>3345</v>
@@ -4654,7 +4696,8 @@
         <v>3</v>
       </c>
       <c r="P54">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="Q54">
         <v>3345</v>
@@ -4707,7 +4750,8 @@
         <v>735</v>
       </c>
       <c r="P55">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="Q55">
         <v>2875</v>
@@ -4760,7 +4804,8 @@
         <v>566</v>
       </c>
       <c r="P56">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="Q56">
         <v>2875</v>
@@ -4813,7 +4858,8 @@
         <v>508</v>
       </c>
       <c r="P57">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="Q57">
         <v>2875</v>
@@ -4866,7 +4912,8 @@
         <v>417</v>
       </c>
       <c r="P58">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="Q58">
         <v>2875</v>
@@ -4919,7 +4966,8 @@
         <v>621</v>
       </c>
       <c r="P59">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="Q59">
         <v>2875</v>
@@ -4972,7 +5020,8 @@
         <v>3</v>
       </c>
       <c r="P60">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="Q60">
         <v>2875</v>
@@ -5025,7 +5074,8 @@
         <v>2</v>
       </c>
       <c r="P61">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="Q61">
         <v>2875</v>
@@ -5078,7 +5128,8 @@
         <v>12</v>
       </c>
       <c r="P62">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="Q62">
         <v>2875</v>
@@ -5131,7 +5182,8 @@
         <v>11</v>
       </c>
       <c r="P63">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="Q63">
         <v>2875</v>
@@ -5184,7 +5236,8 @@
         <v>432</v>
       </c>
       <c r="P64">
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="Q64">
         <v>2010</v>
@@ -5237,7 +5290,8 @@
         <v>592</v>
       </c>
       <c r="P65">
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="Q65">
         <v>2010</v>
@@ -5290,7 +5344,8 @@
         <v>450</v>
       </c>
       <c r="P66">
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="Q66">
         <v>2010</v>
@@ -5343,7 +5398,8 @@
         <v>475</v>
       </c>
       <c r="P67">
-        <v>58</v>
+        <f t="shared" ref="P67:P130" si="1">COUNTIF(K:K,K67)</f>
+        <v>8</v>
       </c>
       <c r="Q67">
         <v>2010</v>
@@ -5396,7 +5452,8 @@
         <v>15</v>
       </c>
       <c r="P68">
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q68">
         <v>2010</v>
@@ -5449,7 +5506,8 @@
         <v>25</v>
       </c>
       <c r="P69">
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q69">
         <v>2010</v>
@@ -5502,7 +5560,8 @@
         <v>12</v>
       </c>
       <c r="P70">
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q70">
         <v>2010</v>
@@ -5555,7 +5614,8 @@
         <v>9</v>
       </c>
       <c r="P71">
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q71">
         <v>2010</v>
@@ -5608,7 +5668,8 @@
         <v>474</v>
       </c>
       <c r="P72">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q72">
         <v>1182</v>
@@ -5661,7 +5722,8 @@
         <v>361</v>
       </c>
       <c r="P73">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q73">
         <v>1182</v>
@@ -5714,7 +5776,8 @@
         <v>301</v>
       </c>
       <c r="P74">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q74">
         <v>1182</v>
@@ -5767,7 +5830,8 @@
         <v>11</v>
       </c>
       <c r="P75">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q75">
         <v>1182</v>
@@ -5820,7 +5884,8 @@
         <v>22</v>
       </c>
       <c r="P76">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q76">
         <v>1182</v>
@@ -5873,7 +5938,8 @@
         <v>13</v>
       </c>
       <c r="P77">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q77">
         <v>1182</v>
@@ -5926,7 +5992,8 @@
         <v>300</v>
       </c>
       <c r="P78">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q78">
         <v>1286</v>
@@ -5979,7 +6046,8 @@
         <v>319</v>
       </c>
       <c r="P79">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q79">
         <v>1286</v>
@@ -6032,7 +6100,8 @@
         <v>323</v>
       </c>
       <c r="P80">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q80">
         <v>1286</v>
@@ -6085,7 +6154,8 @@
         <v>307</v>
       </c>
       <c r="P81">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q81">
         <v>1286</v>
@@ -6138,7 +6208,8 @@
         <v>5</v>
       </c>
       <c r="P82">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q82">
         <v>1286</v>
@@ -6191,7 +6262,8 @@
         <v>14</v>
       </c>
       <c r="P83">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q83">
         <v>1286</v>
@@ -6244,7 +6316,8 @@
         <v>14</v>
       </c>
       <c r="P84">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q84">
         <v>1286</v>
@@ -6297,7 +6370,8 @@
         <v>4</v>
       </c>
       <c r="P85">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q85">
         <v>1286</v>
@@ -6350,7 +6424,8 @@
         <v>286</v>
       </c>
       <c r="P86">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q86">
         <v>764</v>
@@ -6403,7 +6478,8 @@
         <v>220</v>
       </c>
       <c r="P87">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q87">
         <v>764</v>
@@ -6456,7 +6532,8 @@
         <v>241</v>
       </c>
       <c r="P88">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q88">
         <v>764</v>
@@ -6509,7 +6586,8 @@
         <v>6</v>
       </c>
       <c r="P89">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q89">
         <v>764</v>
@@ -6562,7 +6640,8 @@
         <v>5</v>
       </c>
       <c r="P90">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q90">
         <v>764</v>
@@ -6615,7 +6694,8 @@
         <v>6</v>
       </c>
       <c r="P91">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q91">
         <v>764</v>
@@ -6668,7 +6748,8 @@
         <v>229</v>
       </c>
       <c r="P92">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q92">
         <v>670</v>
@@ -6721,7 +6802,8 @@
         <v>207</v>
       </c>
       <c r="P93">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q93">
         <v>670</v>
@@ -6774,7 +6856,8 @@
         <v>232</v>
       </c>
       <c r="P94">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q94">
         <v>670</v>
@@ -6827,7 +6910,8 @@
         <v>2</v>
       </c>
       <c r="P95">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q95">
         <v>670</v>
@@ -6880,7 +6964,8 @@
         <v>190</v>
       </c>
       <c r="P96">
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q96">
         <v>373</v>
@@ -6933,7 +7018,8 @@
         <v>168</v>
       </c>
       <c r="P97">
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q97">
         <v>373</v>
@@ -6986,7 +7072,8 @@
         <v>4</v>
       </c>
       <c r="P98">
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q98">
         <v>373</v>
@@ -7039,7 +7126,8 @@
         <v>11</v>
       </c>
       <c r="P99">
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q99">
         <v>373</v>
@@ -7092,7 +7180,8 @@
         <v>139</v>
       </c>
       <c r="P100">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="Q100">
         <v>312</v>
@@ -7145,7 +7234,8 @@
         <v>171</v>
       </c>
       <c r="P101">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="Q101">
         <v>312</v>
@@ -7198,7 +7288,8 @@
         <v>2</v>
       </c>
       <c r="P102">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="Q102">
         <v>312</v>
@@ -7251,7 +7342,8 @@
         <v>124</v>
       </c>
       <c r="P103">
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q103">
         <v>134</v>
@@ -7304,7 +7396,8 @@
         <v>10</v>
       </c>
       <c r="P104">
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q104">
         <v>134</v>
@@ -7357,7 +7450,8 @@
         <v>84</v>
       </c>
       <c r="P105">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q105">
         <v>89</v>
@@ -7410,7 +7504,8 @@
         <v>5</v>
       </c>
       <c r="P106">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q106">
         <v>89</v>
@@ -7463,7 +7558,8 @@
         <v>27</v>
       </c>
       <c r="P107">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q107">
         <v>27</v>
@@ -7516,7 +7612,8 @@
         <v>42</v>
       </c>
       <c r="P108">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q108">
         <v>45</v>
@@ -7569,7 +7666,8 @@
         <v>3</v>
       </c>
       <c r="P109">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q109">
         <v>45</v>
@@ -7622,7 +7720,8 @@
         <v>18</v>
       </c>
       <c r="P110">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q110">
         <v>18</v>
@@ -7675,7 +7774,8 @@
         <v>24</v>
       </c>
       <c r="P111">
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q111">
         <v>25</v>
@@ -7728,7 +7828,8 @@
         <v>1</v>
       </c>
       <c r="P112">
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q112">
         <v>25</v>
@@ -7781,7 +7882,8 @@
         <v>5</v>
       </c>
       <c r="P113">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q113">
         <v>60</v>
@@ -7834,7 +7936,8 @@
         <v>26</v>
       </c>
       <c r="P114">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q114">
         <v>60</v>
@@ -7887,7 +7990,8 @@
         <v>27</v>
       </c>
       <c r="P115">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q115">
         <v>60</v>
@@ -7940,7 +8044,8 @@
         <v>2</v>
       </c>
       <c r="P116">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q116">
         <v>60</v>
@@ -7993,7 +8098,8 @@
         <v>23</v>
       </c>
       <c r="P117">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q117">
         <v>82</v>
@@ -8046,7 +8152,8 @@
         <v>21</v>
       </c>
       <c r="P118">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q118">
         <v>82</v>
@@ -8099,7 +8206,8 @@
         <v>16</v>
       </c>
       <c r="P119">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q119">
         <v>82</v>
@@ -8152,7 +8260,8 @@
         <v>13</v>
       </c>
       <c r="P120">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q120">
         <v>82</v>
@@ -8205,7 +8314,8 @@
         <v>2</v>
       </c>
       <c r="P121">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q121">
         <v>82</v>
@@ -8258,7 +8368,8 @@
         <v>7</v>
       </c>
       <c r="P122">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q122">
         <v>82</v>
@@ -8311,7 +8422,8 @@
         <v>17</v>
       </c>
       <c r="P123">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q123">
         <v>64</v>
@@ -8364,7 +8476,8 @@
         <v>14</v>
       </c>
       <c r="P124">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q124">
         <v>64</v>
@@ -8417,7 +8530,8 @@
         <v>17</v>
       </c>
       <c r="P125">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q125">
         <v>64</v>
@@ -8470,7 +8584,8 @@
         <v>10</v>
       </c>
       <c r="P126">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q126">
         <v>64</v>
@@ -8523,7 +8638,8 @@
         <v>2</v>
       </c>
       <c r="P127">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q127">
         <v>64</v>
@@ -8576,7 +8692,8 @@
         <v>2</v>
       </c>
       <c r="P128">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q128">
         <v>64</v>
@@ -8629,7 +8746,8 @@
         <v>1</v>
       </c>
       <c r="P129">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q129">
         <v>64</v>
@@ -8682,7 +8800,8 @@
         <v>1</v>
       </c>
       <c r="P130">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q130">
         <v>64</v>
@@ -8735,7 +8854,8 @@
         <v>14</v>
       </c>
       <c r="P131">
-        <v>48</v>
+        <f t="shared" ref="P131:P194" si="2">COUNTIF(K:K,K131)</f>
+        <v>10</v>
       </c>
       <c r="Q131">
         <v>95</v>
@@ -8788,7 +8908,8 @@
         <v>10</v>
       </c>
       <c r="P132">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Q132">
         <v>95</v>
@@ -8841,7 +8962,8 @@
         <v>18</v>
       </c>
       <c r="P133">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Q133">
         <v>95</v>
@@ -8894,7 +9016,8 @@
         <v>15</v>
       </c>
       <c r="P134">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Q134">
         <v>95</v>
@@ -8947,7 +9070,8 @@
         <v>4</v>
       </c>
       <c r="P135">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Q135">
         <v>95</v>
@@ -9000,7 +9124,8 @@
         <v>12</v>
       </c>
       <c r="P136">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Q136">
         <v>95</v>
@@ -9053,7 +9178,8 @@
         <v>8</v>
       </c>
       <c r="P137">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Q137">
         <v>95</v>
@@ -9106,7 +9232,8 @@
         <v>2</v>
       </c>
       <c r="P138">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Q138">
         <v>95</v>
@@ -9159,7 +9286,8 @@
         <v>6</v>
       </c>
       <c r="P139">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Q139">
         <v>95</v>
@@ -9212,7 +9340,8 @@
         <v>6</v>
       </c>
       <c r="P140">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Q140">
         <v>95</v>
@@ -9265,7 +9394,8 @@
         <v>10</v>
       </c>
       <c r="P141">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q141">
         <v>95</v>
@@ -9318,7 +9448,8 @@
         <v>21</v>
       </c>
       <c r="P142">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q142">
         <v>95</v>
@@ -9371,7 +9502,8 @@
         <v>11</v>
       </c>
       <c r="P143">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q143">
         <v>95</v>
@@ -9424,7 +9556,8 @@
         <v>2</v>
       </c>
       <c r="P144">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q144">
         <v>95</v>
@@ -9477,7 +9610,8 @@
         <v>6</v>
       </c>
       <c r="P145">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q145">
         <v>95</v>
@@ -9530,7 +9664,8 @@
         <v>14</v>
       </c>
       <c r="P146">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q146">
         <v>95</v>
@@ -9583,7 +9718,8 @@
         <v>9</v>
       </c>
       <c r="P147">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q147">
         <v>95</v>
@@ -9636,7 +9772,8 @@
         <v>4</v>
       </c>
       <c r="P148">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q148">
         <v>95</v>
@@ -9689,7 +9826,8 @@
         <v>1</v>
       </c>
       <c r="P149">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q149">
         <v>95</v>
@@ -9742,7 +9880,8 @@
         <v>3</v>
       </c>
       <c r="P150">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q150">
         <v>95</v>
@@ -9795,7 +9934,8 @@
         <v>2</v>
       </c>
       <c r="P151">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q151">
         <v>95</v>
@@ -9848,7 +9988,8 @@
         <v>11</v>
       </c>
       <c r="P152">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q152">
         <v>95</v>
@@ -9901,7 +10042,8 @@
         <v>1</v>
       </c>
       <c r="P153">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q153">
         <v>95</v>
@@ -9954,7 +10096,8 @@
         <v>12</v>
       </c>
       <c r="P154">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q154">
         <v>96</v>
@@ -10007,7 +10150,8 @@
         <v>18</v>
       </c>
       <c r="P155">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q155">
         <v>96</v>
@@ -10060,7 +10204,8 @@
         <v>8</v>
       </c>
       <c r="P156">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q156">
         <v>96</v>
@@ -10113,7 +10258,8 @@
         <v>9</v>
       </c>
       <c r="P157">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q157">
         <v>96</v>
@@ -10166,7 +10312,8 @@
         <v>6</v>
       </c>
       <c r="P158">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q158">
         <v>96</v>
@@ -10219,7 +10366,8 @@
         <v>1</v>
       </c>
       <c r="P159">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q159">
         <v>96</v>
@@ -10272,7 +10420,8 @@
         <v>11</v>
       </c>
       <c r="P160">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q160">
         <v>96</v>
@@ -10325,7 +10474,8 @@
         <v>7</v>
       </c>
       <c r="P161">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q161">
         <v>96</v>
@@ -10378,7 +10528,8 @@
         <v>13</v>
       </c>
       <c r="P162">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q162">
         <v>96</v>
@@ -10431,7 +10582,8 @@
         <v>4</v>
       </c>
       <c r="P163">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q163">
         <v>96</v>
@@ -10484,7 +10636,8 @@
         <v>2</v>
       </c>
       <c r="P164">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q164">
         <v>96</v>
@@ -10537,7 +10690,8 @@
         <v>1</v>
       </c>
       <c r="P165">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q165">
         <v>96</v>
@@ -10590,7 +10744,8 @@
         <v>3</v>
       </c>
       <c r="P166">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q166">
         <v>96</v>
@@ -10643,7 +10798,8 @@
         <v>1</v>
       </c>
       <c r="P167">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q167">
         <v>96</v>
@@ -10696,7 +10852,8 @@
         <v>7</v>
       </c>
       <c r="P168">
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q168">
         <v>80</v>
@@ -10749,7 +10906,8 @@
         <v>5</v>
       </c>
       <c r="P169">
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q169">
         <v>80</v>
@@ -10802,7 +10960,8 @@
         <v>7</v>
       </c>
       <c r="P170">
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q170">
         <v>80</v>
@@ -10855,7 +11014,8 @@
         <v>9</v>
       </c>
       <c r="P171">
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q171">
         <v>80</v>
@@ -10908,7 +11068,8 @@
         <v>7</v>
       </c>
       <c r="P172">
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q172">
         <v>80</v>
@@ -10961,7 +11122,8 @@
         <v>6</v>
       </c>
       <c r="P173">
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q173">
         <v>80</v>
@@ -11014,7 +11176,8 @@
         <v>2</v>
       </c>
       <c r="P174">
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q174">
         <v>80</v>
@@ -11067,7 +11230,8 @@
         <v>7</v>
       </c>
       <c r="P175">
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q175">
         <v>80</v>
@@ -11120,7 +11284,8 @@
         <v>4</v>
       </c>
       <c r="P176">
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q176">
         <v>80</v>
@@ -11173,7 +11338,8 @@
         <v>15</v>
       </c>
       <c r="P177">
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q177">
         <v>80</v>
@@ -11226,7 +11392,8 @@
         <v>2</v>
       </c>
       <c r="P178">
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q178">
         <v>80</v>
@@ -11279,7 +11446,8 @@
         <v>8</v>
       </c>
       <c r="P179">
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q179">
         <v>80</v>
@@ -11332,7 +11500,8 @@
         <v>1</v>
       </c>
       <c r="P180">
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="Q180">
         <v>80</v>
@@ -11385,7 +11554,8 @@
         <v>6</v>
       </c>
       <c r="P181">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q181">
         <v>77</v>
@@ -11438,7 +11608,8 @@
         <v>10</v>
       </c>
       <c r="P182">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q182">
         <v>77</v>
@@ -11491,7 +11662,8 @@
         <v>3</v>
       </c>
       <c r="P183">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q183">
         <v>77</v>
@@ -11544,7 +11716,8 @@
         <v>7</v>
       </c>
       <c r="P184">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q184">
         <v>77</v>
@@ -11597,7 +11770,8 @@
         <v>2</v>
       </c>
       <c r="P185">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q185">
         <v>77</v>
@@ -11650,7 +11824,8 @@
         <v>12</v>
       </c>
       <c r="P186">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q186">
         <v>77</v>
@@ -11703,7 +11878,8 @@
         <v>6</v>
       </c>
       <c r="P187">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q187">
         <v>77</v>
@@ -11756,7 +11932,8 @@
         <v>7</v>
       </c>
       <c r="P188">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q188">
         <v>77</v>
@@ -11809,7 +11986,8 @@
         <v>3</v>
       </c>
       <c r="P189">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q189">
         <v>77</v>
@@ -11862,7 +12040,8 @@
         <v>5</v>
       </c>
       <c r="P190">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q190">
         <v>77</v>
@@ -11915,7 +12094,8 @@
         <v>8</v>
       </c>
       <c r="P191">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q191">
         <v>77</v>
@@ -11968,7 +12148,8 @@
         <v>1</v>
       </c>
       <c r="P192">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q192">
         <v>77</v>
@@ -12021,7 +12202,8 @@
         <v>2</v>
       </c>
       <c r="P193">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q193">
         <v>77</v>
@@ -12074,7 +12256,8 @@
         <v>1</v>
       </c>
       <c r="P194">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Q194">
         <v>77</v>
@@ -12127,7 +12310,8 @@
         <v>1</v>
       </c>
       <c r="P195">
-        <v>50</v>
+        <f t="shared" ref="P195:P258" si="3">COUNTIF(K:K,K195)</f>
+        <v>17</v>
       </c>
       <c r="Q195">
         <v>77</v>
@@ -12180,7 +12364,8 @@
         <v>2</v>
       </c>
       <c r="P196">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="Q196">
         <v>77</v>
@@ -12233,7 +12418,8 @@
         <v>1</v>
       </c>
       <c r="P197">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="Q197">
         <v>77</v>
@@ -12286,7 +12472,8 @@
         <v>10</v>
       </c>
       <c r="P198">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q198">
         <v>68</v>
@@ -12339,7 +12526,8 @@
         <v>3</v>
       </c>
       <c r="P199">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q199">
         <v>68</v>
@@ -12392,7 +12580,8 @@
         <v>3</v>
       </c>
       <c r="P200">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q200">
         <v>68</v>
@@ -12445,7 +12634,8 @@
         <v>8</v>
       </c>
       <c r="P201">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q201">
         <v>68</v>
@@ -12498,7 +12688,8 @@
         <v>7</v>
       </c>
       <c r="P202">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q202">
         <v>68</v>
@@ -12551,7 +12742,8 @@
         <v>5</v>
       </c>
       <c r="P203">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q203">
         <v>68</v>
@@ -12604,7 +12796,8 @@
         <v>5</v>
       </c>
       <c r="P204">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q204">
         <v>68</v>
@@ -12657,7 +12850,8 @@
         <v>5</v>
       </c>
       <c r="P205">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q205">
         <v>68</v>
@@ -12710,7 +12904,8 @@
         <v>3</v>
       </c>
       <c r="P206">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q206">
         <v>68</v>
@@ -12763,7 +12958,8 @@
         <v>4</v>
       </c>
       <c r="P207">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q207">
         <v>68</v>
@@ -12816,7 +13012,8 @@
         <v>4</v>
       </c>
       <c r="P208">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q208">
         <v>68</v>
@@ -12869,7 +13066,8 @@
         <v>5</v>
       </c>
       <c r="P209">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q209">
         <v>68</v>
@@ -12922,7 +13120,8 @@
         <v>2</v>
       </c>
       <c r="P210">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q210">
         <v>68</v>
@@ -12975,7 +13174,8 @@
         <v>2</v>
       </c>
       <c r="P211">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q211">
         <v>68</v>
@@ -13028,7 +13228,8 @@
         <v>1</v>
       </c>
       <c r="P212">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q212">
         <v>68</v>
@@ -13081,7 +13282,8 @@
         <v>1</v>
       </c>
       <c r="P213">
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q213">
         <v>68</v>
@@ -13134,7 +13336,8 @@
         <v>7</v>
       </c>
       <c r="P214">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q214">
         <v>53</v>
@@ -13187,7 +13390,8 @@
         <v>5</v>
       </c>
       <c r="P215">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q215">
         <v>53</v>
@@ -13240,7 +13444,8 @@
         <v>7</v>
       </c>
       <c r="P216">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q216">
         <v>53</v>
@@ -13293,7 +13498,8 @@
         <v>5</v>
       </c>
       <c r="P217">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q217">
         <v>53</v>
@@ -13346,7 +13552,8 @@
         <v>6</v>
       </c>
       <c r="P218">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q218">
         <v>53</v>
@@ -13399,7 +13606,8 @@
         <v>2</v>
       </c>
       <c r="P219">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q219">
         <v>53</v>
@@ -13452,7 +13660,8 @@
         <v>1</v>
       </c>
       <c r="P220">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q220">
         <v>53</v>
@@ -13505,7 +13714,8 @@
         <v>5</v>
       </c>
       <c r="P221">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q221">
         <v>53</v>
@@ -13558,7 +13768,8 @@
         <v>2</v>
       </c>
       <c r="P222">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q222">
         <v>53</v>
@@ -13611,7 +13822,8 @@
         <v>1</v>
       </c>
       <c r="P223">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q223">
         <v>53</v>
@@ -13664,7 +13876,8 @@
         <v>8</v>
       </c>
       <c r="P224">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q224">
         <v>53</v>
@@ -13717,7 +13930,8 @@
         <v>2</v>
       </c>
       <c r="P225">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q225">
         <v>53</v>
@@ -13770,7 +13984,8 @@
         <v>1</v>
       </c>
       <c r="P226">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q226">
         <v>53</v>
@@ -13823,7 +14038,8 @@
         <v>1</v>
       </c>
       <c r="P227">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="Q227">
         <v>53</v>
@@ -13876,7 +14092,8 @@
         <v>5</v>
       </c>
       <c r="P228">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q228">
         <v>54</v>
@@ -13929,7 +14146,8 @@
         <v>2</v>
       </c>
       <c r="P229">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q229">
         <v>54</v>
@@ -13982,7 +14200,8 @@
         <v>6</v>
       </c>
       <c r="P230">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q230">
         <v>54</v>
@@ -14035,7 +14254,8 @@
         <v>7</v>
       </c>
       <c r="P231">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q231">
         <v>54</v>
@@ -14088,7 +14308,8 @@
         <v>4</v>
       </c>
       <c r="P232">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q232">
         <v>54</v>
@@ -14141,7 +14362,8 @@
         <v>1</v>
       </c>
       <c r="P233">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q233">
         <v>54</v>
@@ -14194,7 +14416,8 @@
         <v>4</v>
       </c>
       <c r="P234">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q234">
         <v>54</v>
@@ -14247,7 +14470,8 @@
         <v>4</v>
       </c>
       <c r="P235">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q235">
         <v>54</v>
@@ -14300,7 +14524,8 @@
         <v>9</v>
       </c>
       <c r="P236">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q236">
         <v>54</v>
@@ -14353,7 +14578,8 @@
         <v>5</v>
       </c>
       <c r="P237">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q237">
         <v>54</v>
@@ -14406,7 +14632,8 @@
         <v>2</v>
       </c>
       <c r="P238">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q238">
         <v>54</v>
@@ -14459,7 +14686,8 @@
         <v>1</v>
       </c>
       <c r="P239">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q239">
         <v>54</v>
@@ -14512,7 +14740,8 @@
         <v>2</v>
       </c>
       <c r="P240">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q240">
         <v>54</v>
@@ -14565,7 +14794,8 @@
         <v>1</v>
       </c>
       <c r="P241">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q241">
         <v>54</v>
@@ -14618,7 +14848,8 @@
         <v>1</v>
       </c>
       <c r="P242">
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Q242">
         <v>54</v>
@@ -14671,7 +14902,8 @@
         <v>2</v>
       </c>
       <c r="P243">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="Q243">
         <v>34</v>
@@ -14724,7 +14956,8 @@
         <v>2</v>
       </c>
       <c r="P244">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="Q244">
         <v>34</v>
@@ -14777,7 +15010,8 @@
         <v>4</v>
       </c>
       <c r="P245">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="Q245">
         <v>34</v>
@@ -14830,7 +15064,8 @@
         <v>8</v>
       </c>
       <c r="P246">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="Q246">
         <v>34</v>
@@ -14883,7 +15118,8 @@
         <v>2</v>
       </c>
       <c r="P247">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="Q247">
         <v>34</v>
@@ -14936,7 +15172,8 @@
         <v>2</v>
       </c>
       <c r="P248">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="Q248">
         <v>34</v>
@@ -14989,7 +15226,8 @@
         <v>4</v>
       </c>
       <c r="P249">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="Q249">
         <v>34</v>
@@ -15042,7 +15280,8 @@
         <v>1</v>
       </c>
       <c r="P250">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="Q250">
         <v>34</v>
@@ -15095,7 +15334,8 @@
         <v>1</v>
       </c>
       <c r="P251">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="Q251">
         <v>34</v>
@@ -15148,7 +15388,8 @@
         <v>5</v>
       </c>
       <c r="P252">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="Q252">
         <v>34</v>
@@ -15201,7 +15442,8 @@
         <v>1</v>
       </c>
       <c r="P253">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="Q253">
         <v>34</v>
@@ -15254,7 +15496,8 @@
         <v>2</v>
       </c>
       <c r="P254">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="Q254">
         <v>34</v>
@@ -15307,7 +15550,8 @@
         <v>7</v>
       </c>
       <c r="P255">
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="Q255">
         <v>31</v>
@@ -15360,7 +15604,8 @@
         <v>4</v>
       </c>
       <c r="P256">
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="Q256">
         <v>31</v>
@@ -15413,7 +15658,8 @@
         <v>3</v>
       </c>
       <c r="P257">
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="Q257">
         <v>31</v>
@@ -15466,7 +15712,8 @@
         <v>4</v>
       </c>
       <c r="P258">
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="Q258">
         <v>31</v>
@@ -15519,7 +15766,8 @@
         <v>5</v>
       </c>
       <c r="P259">
-        <v>25</v>
+        <f t="shared" ref="P259:P302" si="4">COUNTIF(K:K,K259)</f>
+        <v>11</v>
       </c>
       <c r="Q259">
         <v>31</v>
@@ -15572,7 +15820,8 @@
         <v>2</v>
       </c>
       <c r="P260">
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="Q260">
         <v>31</v>
@@ -15625,7 +15874,8 @@
         <v>1</v>
       </c>
       <c r="P261">
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="Q261">
         <v>31</v>
@@ -15678,7 +15928,8 @@
         <v>2</v>
       </c>
       <c r="P262">
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="Q262">
         <v>31</v>
@@ -15731,7 +15982,8 @@
         <v>1</v>
       </c>
       <c r="P263">
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="Q263">
         <v>31</v>
@@ -15784,7 +16036,8 @@
         <v>1</v>
       </c>
       <c r="P264">
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="Q264">
         <v>31</v>
@@ -15837,7 +16090,8 @@
         <v>1</v>
       </c>
       <c r="P265">
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="Q265">
         <v>31</v>
@@ -15890,7 +16144,8 @@
         <v>5</v>
       </c>
       <c r="P266">
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="Q266">
         <v>20</v>
@@ -15943,7 +16198,8 @@
         <v>1</v>
       </c>
       <c r="P267">
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="Q267">
         <v>20</v>
@@ -15996,7 +16252,8 @@
         <v>2</v>
       </c>
       <c r="P268">
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="Q268">
         <v>20</v>
@@ -16049,7 +16306,8 @@
         <v>2</v>
       </c>
       <c r="P269">
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="Q269">
         <v>20</v>
@@ -16102,7 +16360,8 @@
         <v>4</v>
       </c>
       <c r="P270">
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="Q270">
         <v>20</v>
@@ -16155,7 +16414,8 @@
         <v>2</v>
       </c>
       <c r="P271">
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="Q271">
         <v>20</v>
@@ -16208,7 +16468,8 @@
         <v>1</v>
       </c>
       <c r="P272">
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="Q272">
         <v>20</v>
@@ -16261,7 +16522,8 @@
         <v>1</v>
       </c>
       <c r="P273">
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="Q273">
         <v>20</v>
@@ -16314,7 +16576,8 @@
         <v>1</v>
       </c>
       <c r="P274">
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="Q274">
         <v>20</v>
@@ -16367,7 +16630,8 @@
         <v>1</v>
       </c>
       <c r="P275">
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="Q275">
         <v>20</v>
@@ -16420,7 +16684,8 @@
         <v>3</v>
       </c>
       <c r="P276">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="Q276">
         <v>21</v>
@@ -16473,7 +16738,8 @@
         <v>3</v>
       </c>
       <c r="P277">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="Q277">
         <v>21</v>
@@ -16526,7 +16792,8 @@
         <v>3</v>
       </c>
       <c r="P278">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="Q278">
         <v>21</v>
@@ -16579,7 +16846,8 @@
         <v>6</v>
       </c>
       <c r="P279">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="Q279">
         <v>21</v>
@@ -16632,7 +16900,8 @@
         <v>1</v>
       </c>
       <c r="P280">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="Q280">
         <v>21</v>
@@ -16685,7 +16954,8 @@
         <v>2</v>
       </c>
       <c r="P281">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="Q281">
         <v>21</v>
@@ -16738,7 +17008,8 @@
         <v>2</v>
       </c>
       <c r="P282">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="Q282">
         <v>21</v>
@@ -16791,7 +17062,8 @@
         <v>1</v>
       </c>
       <c r="P283">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="Q283">
         <v>21</v>
@@ -16844,7 +17116,8 @@
         <v>2</v>
       </c>
       <c r="P284">
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="Q284">
         <v>20</v>
@@ -16897,7 +17170,8 @@
         <v>1</v>
       </c>
       <c r="P285">
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="Q285">
         <v>20</v>
@@ -16950,7 +17224,8 @@
         <v>4</v>
       </c>
       <c r="P286">
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="Q286">
         <v>20</v>
@@ -17003,7 +17278,8 @@
         <v>5</v>
       </c>
       <c r="P287">
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="Q287">
         <v>20</v>
@@ -17056,7 +17332,8 @@
         <v>4</v>
       </c>
       <c r="P288">
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="Q288">
         <v>20</v>
@@ -17109,7 +17386,8 @@
         <v>4</v>
       </c>
       <c r="P289">
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="Q289">
         <v>20</v>
@@ -17162,7 +17440,8 @@
         <v>2</v>
       </c>
       <c r="P290">
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Q290">
         <v>9</v>
@@ -17215,7 +17494,8 @@
         <v>1</v>
       </c>
       <c r="P291">
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Q291">
         <v>9</v>
@@ -17268,7 +17548,8 @@
         <v>3</v>
       </c>
       <c r="P292">
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Q292">
         <v>9</v>
@@ -17321,7 +17602,8 @@
         <v>3</v>
       </c>
       <c r="P293">
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Q293">
         <v>9</v>
@@ -17374,7 +17656,8 @@
         <v>2</v>
       </c>
       <c r="P294">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="Q294">
         <v>3</v>
@@ -17427,7 +17710,8 @@
         <v>1</v>
       </c>
       <c r="P295">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="Q295">
         <v>3</v>
@@ -17480,7 +17764,8 @@
         <v>1</v>
       </c>
       <c r="P296">
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -17533,7 +17818,8 @@
         <v>3</v>
       </c>
       <c r="P297">
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="Q297">
         <v>5</v>
@@ -17586,7 +17872,8 @@
         <v>1</v>
       </c>
       <c r="P298">
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="Q298">
         <v>5</v>
@@ -17639,6 +17926,7 @@
         <v>1</v>
       </c>
       <c r="P299">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q299">
@@ -17692,6 +17980,7 @@
         <v>1</v>
       </c>
       <c r="P300">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q300">
@@ -17745,6 +18034,7 @@
         <v>1</v>
       </c>
       <c r="P301">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q301">
@@ -17798,6 +18088,7 @@
         <v>1</v>
       </c>
       <c r="P302">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q302">
@@ -17817,8 +18108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA3DD89-8C3E-4214-B70B-5D258C932D4C}">
   <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17839,7 +18130,7 @@
         <v>-801.5</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1319</v>
@@ -17850,7 +18141,7 @@
         <v>-800.5</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1362</v>
@@ -17861,7 +18152,7 @@
         <v>-799.5</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1089</v>
@@ -17872,7 +18163,7 @@
         <v>-798.5</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1290</v>
@@ -17883,7 +18174,7 @@
         <v>-797.5</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1453</v>
@@ -17894,7 +18185,7 @@
         <v>-796.5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1453</v>
@@ -17905,7 +18196,7 @@
         <v>-795.5</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>953</v>
@@ -17916,7 +18207,7 @@
         <v>-794.5</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>838</v>
@@ -17927,7 +18218,7 @@
         <v>-793.5</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>405</v>
@@ -17938,7 +18229,7 @@
         <v>-792.5</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>711</v>
@@ -17949,7 +18240,7 @@
         <v>-791.5</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>555</v>
@@ -17960,7 +18251,7 @@
         <v>-790.5</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>779</v>
@@ -17971,7 +18262,7 @@
         <v>-789.5</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>613</v>
@@ -17982,7 +18273,7 @@
         <v>-788.5</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>485</v>
@@ -17993,7 +18284,7 @@
         <v>-787.5</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>795</v>
@@ -18004,7 +18295,7 @@
         <v>-786.5</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -18015,7 +18306,7 @@
         <v>-785.5</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -18026,7 +18317,7 @@
         <v>-784.5</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -18037,7 +18328,7 @@
         <v>-783.5</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -18048,7 +18339,7 @@
         <v>-782.5</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>199</v>
@@ -18059,7 +18350,7 @@
         <v>-781.5</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>212</v>
@@ -18070,7 +18361,7 @@
         <v>-780.5</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>384</v>
@@ -18081,7 +18372,7 @@
         <v>-779.5</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>476</v>
@@ -18092,7 +18383,7 @@
         <v>-778.5</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>675</v>
@@ -18103,7 +18394,7 @@
         <v>-777.5</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>595</v>
@@ -18114,7 +18405,7 @@
         <v>-776.5</v>
       </c>
       <c r="B27">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>696</v>
@@ -18125,7 +18416,7 @@
         <v>-775.5</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>524</v>
@@ -18136,7 +18427,7 @@
         <v>-774.5</v>
       </c>
       <c r="B29">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>736</v>
@@ -18147,7 +18438,7 @@
         <v>-773.5</v>
       </c>
       <c r="B30">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>509</v>
@@ -18158,7 +18449,7 @@
         <v>-772.5</v>
       </c>
       <c r="B31">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>663</v>
@@ -18169,7 +18460,7 @@
         <v>-771.5</v>
       </c>
       <c r="B32">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>620</v>
@@ -18180,7 +18471,7 @@
         <v>-770.5</v>
       </c>
       <c r="B33">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>666</v>
@@ -18191,7 +18482,7 @@
         <v>-769.5</v>
       </c>
       <c r="B34">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>630</v>
@@ -18202,7 +18493,7 @@
         <v>-768.5</v>
       </c>
       <c r="B35">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>600</v>
@@ -18213,7 +18504,7 @@
         <v>-767.5</v>
       </c>
       <c r="B36">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>485</v>
@@ -18224,7 +18515,7 @@
         <v>-766.5</v>
       </c>
       <c r="B37">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>430</v>
@@ -18235,7 +18526,7 @@
         <v>-765.5</v>
       </c>
       <c r="B38">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>324</v>
@@ -18246,7 +18537,7 @@
         <v>-764.5</v>
       </c>
       <c r="B39">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>283</v>
@@ -18257,7 +18548,7 @@
         <v>-763.5</v>
       </c>
       <c r="B40">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>195</v>
@@ -18268,7 +18559,7 @@
         <v>-762.5</v>
       </c>
       <c r="B41">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C41">
         <v>168</v>
@@ -18279,7 +18570,7 @@
         <v>-761.5</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>102</v>
@@ -18290,7 +18581,7 @@
         <v>-760.5</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>95</v>
@@ -18301,7 +18592,7 @@
         <v>-759.5</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>75</v>
@@ -18312,7 +18603,7 @@
         <v>-758.5</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>94</v>
@@ -18323,7 +18614,7 @@
         <v>-757.5</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>42</v>
@@ -18334,7 +18625,7 @@
         <v>-756.5</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>29</v>
@@ -18345,7 +18636,7 @@
         <v>-755.5</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -18356,7 +18647,7 @@
         <v>-754.5</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -18367,7 +18658,7 @@
         <v>-753.5</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -18378,7 +18669,7 @@
         <v>-752.5</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -18389,7 +18680,7 @@
         <v>-751.5</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -18400,7 +18691,7 @@
         <v>-750.5</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -18411,7 +18702,7 @@
         <v>-749.5</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -18422,7 +18713,7 @@
         <v>-748.5</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -18433,7 +18724,7 @@
         <v>-747.5</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -18444,7 +18735,7 @@
         <v>-746.5</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -18455,7 +18746,7 @@
         <v>-745.5</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -18466,7 +18757,7 @@
         <v>-744.5</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -18477,7 +18768,7 @@
         <v>-743.5</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -18488,7 +18779,7 @@
         <v>-742.5</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -18499,7 +18790,7 @@
         <v>-741.5</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -18510,7 +18801,7 @@
         <v>-740.5</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -18521,7 +18812,7 @@
         <v>-739.5</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -18532,7 +18823,7 @@
         <v>-738.5</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -18543,7 +18834,7 @@
         <v>-737.5</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -18554,7 +18845,7 @@
         <v>-736.5</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -18565,7 +18856,7 @@
         <v>-735.5</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -18576,7 +18867,7 @@
         <v>-734.5</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -18587,7 +18878,7 @@
         <v>-733.5</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -18598,7 +18889,7 @@
         <v>-732.5</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -18609,7 +18900,7 @@
         <v>-731.5</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -18631,7 +18922,7 @@
         <v>-729.5</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -18642,7 +18933,7 @@
         <v>-728.5</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -18653,7 +18944,7 @@
         <v>-727.5</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -18664,7 +18955,7 @@
         <v>-726.5</v>
       </c>
       <c r="B77">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C77">
         <v>11</v>
@@ -18675,7 +18966,7 @@
         <v>-725.5</v>
       </c>
       <c r="B78">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C78">
         <v>11</v>
@@ -18686,7 +18977,7 @@
         <v>-724.5</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C79">
         <v>14</v>
@@ -18697,7 +18988,7 @@
         <v>-723.5</v>
       </c>
       <c r="B80">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C80">
         <v>12</v>
@@ -18708,7 +18999,7 @@
         <v>-722.5</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C81">
         <v>13</v>
@@ -18719,7 +19010,7 @@
         <v>-721.5</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82">
         <v>12</v>
@@ -18730,7 +19021,7 @@
         <v>-720.5</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C83">
         <v>25</v>
@@ -18741,7 +19032,7 @@
         <v>-719.5</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C84">
         <v>15</v>
@@ -18752,7 +19043,7 @@
         <v>-718.5</v>
       </c>
       <c r="B85">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C85">
         <v>23</v>
@@ -18763,7 +19054,7 @@
         <v>-717.5</v>
       </c>
       <c r="B86">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C86">
         <v>36</v>
@@ -18774,7 +19065,7 @@
         <v>-716.5</v>
       </c>
       <c r="B87">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C87">
         <v>24</v>
@@ -18785,7 +19076,7 @@
         <v>-715.5</v>
       </c>
       <c r="B88">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C88">
         <v>16</v>
@@ -18796,7 +19087,7 @@
         <v>-714.5</v>
       </c>
       <c r="B89">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C89">
         <v>19</v>
@@ -18807,7 +19098,7 @@
         <v>-713.5</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C90">
         <v>24</v>
@@ -18818,7 +19109,7 @@
         <v>-712.5</v>
       </c>
       <c r="B91">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C91">
         <v>18</v>
@@ -18829,7 +19120,7 @@
         <v>-711.5</v>
       </c>
       <c r="B92">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -18840,7 +19131,7 @@
         <v>-710.5</v>
       </c>
       <c r="B93">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C93">
         <v>20</v>
@@ -18851,7 +19142,7 @@
         <v>-709.5</v>
       </c>
       <c r="B94">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C94">
         <v>18</v>
@@ -18862,7 +19153,7 @@
         <v>-708.5</v>
       </c>
       <c r="B95">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95">
         <v>19</v>
@@ -18884,7 +19175,7 @@
         <v>-706.5</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -18972,7 +19263,7 @@
         <v>-698.5</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -18983,7 +19274,7 @@
         <v>-697.5</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -19005,7 +19296,7 @@
         <v>-695.5</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -19027,7 +19318,7 @@
         <v>-693.5</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -19038,7 +19329,7 @@
         <v>-692.5</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -19049,7 +19340,7 @@
         <v>-691.5</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -19060,7 +19351,7 @@
         <v>-690.5</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -19071,7 +19362,7 @@
         <v>-689.5</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -19082,7 +19373,7 @@
         <v>-688.5</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -19093,7 +19384,7 @@
         <v>-687.5</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -19104,7 +19395,7 @@
         <v>-686.5</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -19115,7 +19406,7 @@
         <v>-685.5</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -19126,7 +19417,7 @@
         <v>-684.5</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -19137,7 +19428,7 @@
         <v>-683.5</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -19148,7 +19439,7 @@
         <v>-682.5</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -19159,7 +19450,7 @@
         <v>-681.5</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -19170,7 +19461,7 @@
         <v>-680.5</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -19181,7 +19472,7 @@
         <v>-679.5</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -19192,7 +19483,7 @@
         <v>-678.5</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -19203,7 +19494,7 @@
         <v>-677.5</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -19214,7 +19505,7 @@
         <v>-676.5</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -19225,7 +19516,7 @@
         <v>-675.5</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -19236,7 +19527,7 @@
         <v>-674.5</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -19247,7 +19538,7 @@
         <v>-673.5</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -19258,7 +19549,7 @@
         <v>-672.5</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -19269,7 +19560,7 @@
         <v>-671.5</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -19280,7 +19571,7 @@
         <v>-670.5</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -19291,7 +19582,7 @@
         <v>-669.5</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -19302,7 +19593,7 @@
         <v>-668.5</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -19313,7 +19604,7 @@
         <v>-667.5</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -19324,7 +19615,7 @@
         <v>-666.5</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -19335,7 +19626,7 @@
         <v>-665.5</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -19346,7 +19637,7 @@
         <v>-664.5</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -19357,7 +19648,7 @@
         <v>-663.5</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -19368,7 +19659,7 @@
         <v>-662.5</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -19379,7 +19670,7 @@
         <v>-661.5</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -19390,7 +19681,7 @@
         <v>-660.5</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -19401,7 +19692,7 @@
         <v>-659.5</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -19412,7 +19703,7 @@
         <v>-658.5</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -19423,7 +19714,7 @@
         <v>-657.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -19434,7 +19725,7 @@
         <v>-656.5</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -19445,7 +19736,7 @@
         <v>-655.5</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -19456,7 +19747,7 @@
         <v>-654.5</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -19467,7 +19758,7 @@
         <v>-653.5</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -19478,7 +19769,7 @@
         <v>-652.5</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -19489,7 +19780,7 @@
         <v>-651.5</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -19500,7 +19791,7 @@
         <v>-650.5</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -19511,7 +19802,7 @@
         <v>-649.5</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -19522,7 +19813,7 @@
         <v>-648.5</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -19533,7 +19824,7 @@
         <v>-647.5</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -19544,7 +19835,7 @@
         <v>-646.5</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -19555,7 +19846,7 @@
         <v>-645.5</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -19566,7 +19857,7 @@
         <v>-644.5</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -19577,7 +19868,7 @@
         <v>-643.5</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -19588,7 +19879,7 @@
         <v>-642.5</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -19599,7 +19890,7 @@
         <v>-641.5</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -19610,7 +19901,7 @@
         <v>-640.5</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -19621,7 +19912,7 @@
         <v>-639.5</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -19632,7 +19923,7 @@
         <v>-638.5</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -19643,7 +19934,7 @@
         <v>-637.5</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -19654,7 +19945,7 @@
         <v>-636.5</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -19665,7 +19956,7 @@
         <v>-635.5</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -19676,7 +19967,7 @@
         <v>-634.5</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -19687,7 +19978,7 @@
         <v>-633.5</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -19698,7 +19989,7 @@
         <v>-632.5</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -19709,7 +20000,7 @@
         <v>-631.5</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -19720,7 +20011,7 @@
         <v>-630.5</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -19731,7 +20022,7 @@
         <v>-629.5</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -19742,7 +20033,7 @@
         <v>-628.5</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -19753,7 +20044,7 @@
         <v>-627.5</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -19779,68 +20070,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89BAEEF-7F4D-47FF-81F5-1B71CF01956E}">
   <dimension ref="A1:U492"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A340" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -19903,7 +20194,8 @@
         <v>1</v>
       </c>
       <c r="T2">
-        <v>13</v>
+        <f>COUNTIFS(Q:Q,Q2)</f>
+        <v>3</v>
       </c>
       <c r="U2">
         <v>1319</v>
@@ -19968,7 +20260,8 @@
         <v>22</v>
       </c>
       <c r="T3">
-        <v>13</v>
+        <f t="shared" ref="T3:T66" si="0">COUNTIF(Q:Q,Q3)</f>
+        <v>3</v>
       </c>
       <c r="U3">
         <v>1319</v>
@@ -20033,7 +20326,8 @@
         <v>1296</v>
       </c>
       <c r="T4">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="U4">
         <v>1319</v>
@@ -20098,7 +20392,8 @@
         <v>33</v>
       </c>
       <c r="T5">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U5">
         <v>1362</v>
@@ -20163,7 +20458,8 @@
         <v>1329</v>
       </c>
       <c r="T6">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U6">
         <v>1362</v>
@@ -20228,7 +20524,8 @@
         <v>2</v>
       </c>
       <c r="T7">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="U7">
         <v>1089</v>
@@ -20293,7 +20590,8 @@
         <v>20</v>
       </c>
       <c r="T8">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="U8">
         <v>1089</v>
@@ -20358,7 +20656,8 @@
         <v>1067</v>
       </c>
       <c r="T9">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="U9">
         <v>1089</v>
@@ -20423,7 +20722,8 @@
         <v>21</v>
       </c>
       <c r="T10">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>1290</v>
@@ -20488,7 +20788,8 @@
         <v>1269</v>
       </c>
       <c r="T11">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U11">
         <v>1290</v>
@@ -20553,7 +20854,8 @@
         <v>1</v>
       </c>
       <c r="T12">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="U12">
         <v>1453</v>
@@ -20618,7 +20920,8 @@
         <v>46</v>
       </c>
       <c r="T13">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="U13">
         <v>1453</v>
@@ -20683,7 +20986,8 @@
         <v>1406</v>
       </c>
       <c r="T14">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="U14">
         <v>1453</v>
@@ -20748,7 +21052,8 @@
         <v>26</v>
       </c>
       <c r="T15">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U15">
         <v>1453</v>
@@ -20813,7 +21118,8 @@
         <v>1427</v>
       </c>
       <c r="T16">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U16">
         <v>1453</v>
@@ -20878,7 +21184,8 @@
         <v>14</v>
       </c>
       <c r="T17">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U17">
         <v>953</v>
@@ -20943,7 +21250,8 @@
         <v>939</v>
       </c>
       <c r="T18">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U18">
         <v>953</v>
@@ -21008,7 +21316,8 @@
         <v>18</v>
       </c>
       <c r="T19">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U19">
         <v>838</v>
@@ -21073,7 +21382,8 @@
         <v>820</v>
       </c>
       <c r="T20">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U20">
         <v>838</v>
@@ -21138,7 +21448,8 @@
         <v>10</v>
       </c>
       <c r="T21">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U21">
         <v>405</v>
@@ -21203,7 +21514,8 @@
         <v>395</v>
       </c>
       <c r="T22">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U22">
         <v>405</v>
@@ -21268,7 +21580,8 @@
         <v>36</v>
       </c>
       <c r="T23">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U23">
         <v>711</v>
@@ -21333,7 +21646,8 @@
         <v>675</v>
       </c>
       <c r="T24">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U24">
         <v>711</v>
@@ -21398,7 +21712,8 @@
         <v>14</v>
       </c>
       <c r="T25">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U25">
         <v>555</v>
@@ -21463,7 +21778,8 @@
         <v>541</v>
       </c>
       <c r="T26">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U26">
         <v>555</v>
@@ -21528,7 +21844,8 @@
         <v>17</v>
       </c>
       <c r="T27">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U27">
         <v>779</v>
@@ -21593,7 +21910,8 @@
         <v>762</v>
       </c>
       <c r="T28">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U28">
         <v>779</v>
@@ -21658,7 +21976,8 @@
         <v>8</v>
       </c>
       <c r="T29">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U29">
         <v>613</v>
@@ -21723,7 +22042,8 @@
         <v>605</v>
       </c>
       <c r="T30">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U30">
         <v>613</v>
@@ -21788,7 +22108,8 @@
         <v>19</v>
       </c>
       <c r="T31">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U31">
         <v>485</v>
@@ -21853,7 +22174,8 @@
         <v>466</v>
       </c>
       <c r="T32">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U32">
         <v>485</v>
@@ -21918,7 +22240,8 @@
         <v>15</v>
       </c>
       <c r="T33">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="U33">
         <v>795</v>
@@ -21983,7 +22306,8 @@
         <v>2</v>
       </c>
       <c r="T34">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="U34">
         <v>795</v>
@@ -22048,7 +22372,8 @@
         <v>456</v>
       </c>
       <c r="T35">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="U35">
         <v>795</v>
@@ -22113,7 +22438,8 @@
         <v>322</v>
       </c>
       <c r="T36">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="U36">
         <v>795</v>
@@ -22178,7 +22504,8 @@
         <v>2</v>
       </c>
       <c r="T37">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U37">
         <v>199</v>
@@ -22243,7 +22570,8 @@
         <v>197</v>
       </c>
       <c r="T38">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U38">
         <v>199</v>
@@ -22308,7 +22636,8 @@
         <v>10</v>
       </c>
       <c r="T39">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U39">
         <v>212</v>
@@ -22373,7 +22702,8 @@
         <v>202</v>
       </c>
       <c r="T40">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="U40">
         <v>212</v>
@@ -22438,7 +22768,8 @@
         <v>7</v>
       </c>
       <c r="T41">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="U41">
         <v>384</v>
@@ -22503,7 +22834,8 @@
         <v>4</v>
       </c>
       <c r="T42">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="U42">
         <v>384</v>
@@ -22568,7 +22900,8 @@
         <v>202</v>
       </c>
       <c r="T43">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="U43">
         <v>384</v>
@@ -22633,7 +22966,8 @@
         <v>171</v>
       </c>
       <c r="T44">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="U44">
         <v>384</v>
@@ -22698,7 +23032,8 @@
         <v>8</v>
       </c>
       <c r="T45">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="U45">
         <v>476</v>
@@ -22763,7 +23098,8 @@
         <v>14</v>
       </c>
       <c r="T46">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="U46">
         <v>476</v>
@@ -22828,7 +23164,8 @@
         <v>267</v>
       </c>
       <c r="T47">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="U47">
         <v>476</v>
@@ -22893,7 +23230,8 @@
         <v>187</v>
       </c>
       <c r="T48">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="U48">
         <v>476</v>
@@ -22958,7 +23296,8 @@
         <v>19</v>
       </c>
       <c r="T49">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="U49">
         <v>675</v>
@@ -23023,7 +23362,8 @@
         <v>7</v>
       </c>
       <c r="T50">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="U50">
         <v>675</v>
@@ -23088,7 +23428,8 @@
         <v>12</v>
       </c>
       <c r="T51">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="U51">
         <v>675</v>
@@ -23153,7 +23494,8 @@
         <v>230</v>
       </c>
       <c r="T52">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="U52">
         <v>675</v>
@@ -23218,7 +23560,8 @@
         <v>232</v>
       </c>
       <c r="T53">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="U53">
         <v>675</v>
@@ -23283,7 +23626,8 @@
         <v>175</v>
       </c>
       <c r="T54">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="U54">
         <v>675</v>
@@ -23348,7 +23692,8 @@
         <v>34</v>
       </c>
       <c r="T55">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="U55">
         <v>595</v>
@@ -23413,7 +23758,8 @@
         <v>6</v>
       </c>
       <c r="T56">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="U56">
         <v>595</v>
@@ -23478,7 +23824,8 @@
         <v>4</v>
       </c>
       <c r="T57">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="U57">
         <v>595</v>
@@ -23543,7 +23890,8 @@
         <v>225</v>
       </c>
       <c r="T58">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="U58">
         <v>595</v>
@@ -23608,7 +23956,8 @@
         <v>188</v>
       </c>
       <c r="T59">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="U59">
         <v>595</v>
@@ -23673,7 +24022,8 @@
         <v>138</v>
       </c>
       <c r="T60">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="U60">
         <v>595</v>
@@ -23738,7 +24088,8 @@
         <v>38</v>
       </c>
       <c r="T61">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="U61">
         <v>696</v>
@@ -23803,7 +24154,8 @@
         <v>18</v>
       </c>
       <c r="T62">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="U62">
         <v>696</v>
@@ -23868,7 +24220,8 @@
         <v>8</v>
       </c>
       <c r="T63">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="U63">
         <v>696</v>
@@ -23933,7 +24286,8 @@
         <v>4</v>
       </c>
       <c r="T64">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="U64">
         <v>696</v>
@@ -23998,7 +24352,8 @@
         <v>178</v>
       </c>
       <c r="T65">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="U65">
         <v>696</v>
@@ -24063,7 +24418,8 @@
         <v>164</v>
       </c>
       <c r="T66">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="U66">
         <v>696</v>
@@ -24128,7 +24484,8 @@
         <v>141</v>
       </c>
       <c r="T67">
-        <v>34</v>
+        <f t="shared" ref="T67:T130" si="1">COUNTIF(Q:Q,Q67)</f>
+        <v>8</v>
       </c>
       <c r="U67">
         <v>696</v>
@@ -24193,7 +24550,8 @@
         <v>145</v>
       </c>
       <c r="T68">
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="U68">
         <v>696</v>
@@ -24258,7 +24616,8 @@
         <v>17</v>
       </c>
       <c r="T69">
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="U69">
         <v>524</v>
@@ -24323,7 +24682,8 @@
         <v>4</v>
       </c>
       <c r="T70">
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="U70">
         <v>524</v>
@@ -24388,7 +24748,8 @@
         <v>3</v>
       </c>
       <c r="T71">
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="U71">
         <v>524</v>
@@ -24453,7 +24814,8 @@
         <v>215</v>
       </c>
       <c r="T72">
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="U72">
         <v>524</v>
@@ -24518,7 +24880,8 @@
         <v>100</v>
       </c>
       <c r="T73">
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="U73">
         <v>524</v>
@@ -24583,7 +24946,8 @@
         <v>125</v>
       </c>
       <c r="T74">
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="U74">
         <v>524</v>
@@ -24648,7 +25012,8 @@
         <v>60</v>
       </c>
       <c r="T75">
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="U75">
         <v>524</v>
@@ -24713,7 +25078,8 @@
         <v>1</v>
       </c>
       <c r="T76">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U76">
         <v>736</v>
@@ -24778,7 +25144,8 @@
         <v>6</v>
       </c>
       <c r="T77">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U77">
         <v>736</v>
@@ -24843,7 +25210,8 @@
         <v>3</v>
       </c>
       <c r="T78">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U78">
         <v>736</v>
@@ -24908,7 +25276,8 @@
         <v>5</v>
       </c>
       <c r="T79">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U79">
         <v>736</v>
@@ -24973,7 +25342,8 @@
         <v>3</v>
       </c>
       <c r="T80">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U80">
         <v>736</v>
@@ -25038,7 +25408,8 @@
         <v>1</v>
       </c>
       <c r="T81">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U81">
         <v>736</v>
@@ -25103,7 +25474,8 @@
         <v>241</v>
       </c>
       <c r="T82">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U82">
         <v>736</v>
@@ -25168,7 +25540,8 @@
         <v>183</v>
       </c>
       <c r="T83">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U83">
         <v>736</v>
@@ -25233,7 +25606,8 @@
         <v>122</v>
       </c>
       <c r="T84">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U84">
         <v>736</v>
@@ -25298,7 +25672,8 @@
         <v>115</v>
       </c>
       <c r="T85">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U85">
         <v>736</v>
@@ -25363,7 +25738,8 @@
         <v>56</v>
       </c>
       <c r="T86">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U86">
         <v>736</v>
@@ -25428,7 +25804,8 @@
         <v>11</v>
       </c>
       <c r="T87">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="U87">
         <v>509</v>
@@ -25493,7 +25870,8 @@
         <v>3</v>
       </c>
       <c r="T88">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="U88">
         <v>509</v>
@@ -25558,7 +25936,8 @@
         <v>2</v>
       </c>
       <c r="T89">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="U89">
         <v>509</v>
@@ -25623,7 +26002,8 @@
         <v>3</v>
       </c>
       <c r="T90">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="U90">
         <v>509</v>
@@ -25688,7 +26068,8 @@
         <v>3</v>
       </c>
       <c r="T91">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="U91">
         <v>509</v>
@@ -25753,7 +26134,8 @@
         <v>105</v>
       </c>
       <c r="T92">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="U92">
         <v>509</v>
@@ -25818,7 +26200,8 @@
         <v>134</v>
       </c>
       <c r="T93">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="U93">
         <v>509</v>
@@ -25883,7 +26266,8 @@
         <v>108</v>
       </c>
       <c r="T94">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="U94">
         <v>509</v>
@@ -25948,7 +26332,8 @@
         <v>78</v>
       </c>
       <c r="T95">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="U95">
         <v>509</v>
@@ -26013,7 +26398,8 @@
         <v>62</v>
       </c>
       <c r="T96">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="U96">
         <v>509</v>
@@ -26078,7 +26464,8 @@
         <v>29</v>
       </c>
       <c r="T97">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U97">
         <v>663</v>
@@ -26143,7 +26530,8 @@
         <v>12</v>
       </c>
       <c r="T98">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U98">
         <v>663</v>
@@ -26208,7 +26596,8 @@
         <v>9</v>
       </c>
       <c r="T99">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U99">
         <v>663</v>
@@ -26273,7 +26662,8 @@
         <v>1</v>
       </c>
       <c r="T100">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U100">
         <v>663</v>
@@ -26338,7 +26728,8 @@
         <v>1</v>
       </c>
       <c r="T101">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U101">
         <v>663</v>
@@ -26403,7 +26794,8 @@
         <v>171</v>
       </c>
       <c r="T102">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U102">
         <v>663</v>
@@ -26468,7 +26860,8 @@
         <v>138</v>
       </c>
       <c r="T103">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U103">
         <v>663</v>
@@ -26533,7 +26926,8 @@
         <v>97</v>
       </c>
       <c r="T104">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U104">
         <v>663</v>
@@ -26598,7 +26992,8 @@
         <v>72</v>
       </c>
       <c r="T105">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U105">
         <v>663</v>
@@ -26663,7 +27058,8 @@
         <v>75</v>
       </c>
       <c r="T106">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U106">
         <v>663</v>
@@ -26728,7 +27124,8 @@
         <v>58</v>
       </c>
       <c r="T107">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U107">
         <v>663</v>
@@ -26793,7 +27190,8 @@
         <v>1</v>
       </c>
       <c r="T108">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U108">
         <v>620</v>
@@ -26858,7 +27256,8 @@
         <v>25</v>
       </c>
       <c r="T109">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U109">
         <v>620</v>
@@ -26923,7 +27322,8 @@
         <v>6</v>
       </c>
       <c r="T110">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U110">
         <v>620</v>
@@ -26988,7 +27388,8 @@
         <v>4</v>
       </c>
       <c r="T111">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U111">
         <v>620</v>
@@ -27053,7 +27454,8 @@
         <v>3</v>
       </c>
       <c r="T112">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U112">
         <v>620</v>
@@ -27118,7 +27520,8 @@
         <v>132</v>
       </c>
       <c r="T113">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U113">
         <v>620</v>
@@ -27183,7 +27586,8 @@
         <v>133</v>
       </c>
       <c r="T114">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U114">
         <v>620</v>
@@ -27248,7 +27652,8 @@
         <v>97</v>
       </c>
       <c r="T115">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U115">
         <v>620</v>
@@ -27313,7 +27718,8 @@
         <v>87</v>
       </c>
       <c r="T116">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U116">
         <v>620</v>
@@ -27378,7 +27784,8 @@
         <v>66</v>
       </c>
       <c r="T117">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U117">
         <v>620</v>
@@ -27443,7 +27850,8 @@
         <v>66</v>
       </c>
       <c r="T118">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="U118">
         <v>620</v>
@@ -27508,7 +27916,8 @@
         <v>2</v>
       </c>
       <c r="T119">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="U119">
         <v>666</v>
@@ -27573,7 +27982,8 @@
         <v>6</v>
       </c>
       <c r="T120">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="U120">
         <v>666</v>
@@ -27638,7 +28048,8 @@
         <v>10</v>
       </c>
       <c r="T121">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="U121">
         <v>666</v>
@@ -27703,7 +28114,8 @@
         <v>11</v>
       </c>
       <c r="T122">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="U122">
         <v>666</v>
@@ -27768,7 +28180,8 @@
         <v>5</v>
       </c>
       <c r="T123">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="U123">
         <v>666</v>
@@ -27833,7 +28246,8 @@
         <v>2</v>
       </c>
       <c r="T124">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="U124">
         <v>666</v>
@@ -27898,7 +28312,8 @@
         <v>2</v>
       </c>
       <c r="T125">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="U125">
         <v>666</v>
@@ -27963,7 +28378,8 @@
         <v>2</v>
       </c>
       <c r="T126">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="U126">
         <v>666</v>
@@ -28028,7 +28444,8 @@
         <v>133</v>
       </c>
       <c r="T127">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="U127">
         <v>666</v>
@@ -28093,7 +28510,8 @@
         <v>110</v>
       </c>
       <c r="T128">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="U128">
         <v>666</v>
@@ -28158,7 +28576,8 @@
         <v>92</v>
       </c>
       <c r="T129">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="U129">
         <v>666</v>
@@ -28223,7 +28642,8 @@
         <v>100</v>
       </c>
       <c r="T130">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="U130">
         <v>666</v>
@@ -28288,7 +28708,8 @@
         <v>50</v>
       </c>
       <c r="T131">
-        <v>57</v>
+        <f t="shared" ref="T131:T194" si="2">COUNTIF(Q:Q,Q131)</f>
+        <v>15</v>
       </c>
       <c r="U131">
         <v>666</v>
@@ -28353,7 +28774,8 @@
         <v>67</v>
       </c>
       <c r="T132">
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="U132">
         <v>666</v>
@@ -28418,7 +28840,8 @@
         <v>74</v>
       </c>
       <c r="T133">
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="U133">
         <v>666</v>
@@ -28483,7 +28906,8 @@
         <v>18</v>
       </c>
       <c r="T134">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U134">
         <v>630</v>
@@ -28548,7 +28972,8 @@
         <v>9</v>
       </c>
       <c r="T135">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U135">
         <v>630</v>
@@ -28613,7 +29038,8 @@
         <v>8</v>
       </c>
       <c r="T136">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U136">
         <v>630</v>
@@ -28678,7 +29104,8 @@
         <v>3</v>
       </c>
       <c r="T137">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U137">
         <v>630</v>
@@ -28743,7 +29170,8 @@
         <v>3</v>
       </c>
       <c r="T138">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U138">
         <v>630</v>
@@ -28808,7 +29236,8 @@
         <v>108</v>
       </c>
       <c r="T139">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U139">
         <v>630</v>
@@ -28873,7 +29302,8 @@
         <v>104</v>
       </c>
       <c r="T140">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U140">
         <v>630</v>
@@ -28938,7 +29368,8 @@
         <v>81</v>
       </c>
       <c r="T141">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U141">
         <v>630</v>
@@ -29003,7 +29434,8 @@
         <v>78</v>
       </c>
       <c r="T142">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U142">
         <v>630</v>
@@ -29068,7 +29500,8 @@
         <v>93</v>
       </c>
       <c r="T143">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U143">
         <v>630</v>
@@ -29133,7 +29566,8 @@
         <v>84</v>
       </c>
       <c r="T144">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U144">
         <v>630</v>
@@ -29198,7 +29632,8 @@
         <v>41</v>
       </c>
       <c r="T145">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U145">
         <v>630</v>
@@ -29263,7 +29698,8 @@
         <v>1</v>
       </c>
       <c r="T146">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U146">
         <v>600</v>
@@ -29328,7 +29764,8 @@
         <v>13</v>
       </c>
       <c r="T147">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U147">
         <v>600</v>
@@ -29393,7 +29830,8 @@
         <v>3</v>
       </c>
       <c r="T148">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U148">
         <v>600</v>
@@ -29458,7 +29896,8 @@
         <v>5</v>
       </c>
       <c r="T149">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U149">
         <v>600</v>
@@ -29523,7 +29962,8 @@
         <v>3</v>
       </c>
       <c r="T150">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U150">
         <v>600</v>
@@ -29588,7 +30028,8 @@
         <v>2</v>
       </c>
       <c r="T151">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U151">
         <v>600</v>
@@ -29653,7 +30094,8 @@
         <v>2</v>
       </c>
       <c r="T152">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U152">
         <v>600</v>
@@ -29718,7 +30160,8 @@
         <v>153</v>
       </c>
       <c r="T153">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U153">
         <v>600</v>
@@ -29783,7 +30226,8 @@
         <v>90</v>
       </c>
       <c r="T154">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U154">
         <v>600</v>
@@ -29848,7 +30292,8 @@
         <v>68</v>
       </c>
       <c r="T155">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U155">
         <v>600</v>
@@ -29913,7 +30358,8 @@
         <v>87</v>
       </c>
       <c r="T156">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U156">
         <v>600</v>
@@ -29978,7 +30424,8 @@
         <v>71</v>
       </c>
       <c r="T157">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U157">
         <v>600</v>
@@ -30043,7 +30490,8 @@
         <v>62</v>
       </c>
       <c r="T158">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U158">
         <v>600</v>
@@ -30108,7 +30556,8 @@
         <v>40</v>
       </c>
       <c r="T159">
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="U159">
         <v>600</v>
@@ -30173,7 +30622,8 @@
         <v>9</v>
       </c>
       <c r="T160">
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="U160">
         <v>485</v>
@@ -30238,7 +30688,8 @@
         <v>4</v>
       </c>
       <c r="T161">
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="U161">
         <v>485</v>
@@ -30303,7 +30754,8 @@
         <v>2</v>
       </c>
       <c r="T162">
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="U162">
         <v>485</v>
@@ -30368,7 +30820,8 @@
         <v>4</v>
       </c>
       <c r="T163">
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="U163">
         <v>485</v>
@@ -30433,7 +30886,8 @@
         <v>102</v>
       </c>
       <c r="T164">
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="U164">
         <v>485</v>
@@ -30498,7 +30952,8 @@
         <v>108</v>
       </c>
       <c r="T165">
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="U165">
         <v>485</v>
@@ -30563,7 +31018,8 @@
         <v>60</v>
       </c>
       <c r="T166">
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="U166">
         <v>485</v>
@@ -30628,7 +31084,8 @@
         <v>70</v>
       </c>
       <c r="T167">
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="U167">
         <v>485</v>
@@ -30693,7 +31150,8 @@
         <v>70</v>
       </c>
       <c r="T168">
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="U168">
         <v>485</v>
@@ -30758,7 +31216,8 @@
         <v>56</v>
       </c>
       <c r="T169">
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="U169">
         <v>485</v>
@@ -30823,7 +31282,8 @@
         <v>2</v>
       </c>
       <c r="T170">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U170">
         <v>430</v>
@@ -30888,7 +31348,8 @@
         <v>3</v>
       </c>
       <c r="T171">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U171">
         <v>430</v>
@@ -30953,7 +31414,8 @@
         <v>3</v>
       </c>
       <c r="T172">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U172">
         <v>430</v>
@@ -31018,7 +31480,8 @@
         <v>2</v>
       </c>
       <c r="T173">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U173">
         <v>430</v>
@@ -31083,7 +31546,8 @@
         <v>1</v>
       </c>
       <c r="T174">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U174">
         <v>430</v>
@@ -31148,7 +31612,8 @@
         <v>1</v>
       </c>
       <c r="T175">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U175">
         <v>430</v>
@@ -31213,7 +31678,8 @@
         <v>101</v>
       </c>
       <c r="T176">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U176">
         <v>430</v>
@@ -31278,7 +31744,8 @@
         <v>86</v>
       </c>
       <c r="T177">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U177">
         <v>430</v>
@@ -31343,7 +31810,8 @@
         <v>86</v>
       </c>
       <c r="T178">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U178">
         <v>430</v>
@@ -31408,7 +31876,8 @@
         <v>71</v>
       </c>
       <c r="T179">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U179">
         <v>430</v>
@@ -31473,7 +31942,8 @@
         <v>44</v>
       </c>
       <c r="T180">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U180">
         <v>430</v>
@@ -31538,7 +32008,8 @@
         <v>30</v>
       </c>
       <c r="T181">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="U181">
         <v>430</v>
@@ -31603,7 +32074,8 @@
         <v>2</v>
       </c>
       <c r="T182">
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="U182">
         <v>324</v>
@@ -31668,7 +32140,8 @@
         <v>1</v>
       </c>
       <c r="T183">
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="U183">
         <v>324</v>
@@ -31733,7 +32206,8 @@
         <v>94</v>
       </c>
       <c r="T184">
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="U184">
         <v>324</v>
@@ -31798,7 +32272,8 @@
         <v>76</v>
       </c>
       <c r="T185">
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="U185">
         <v>324</v>
@@ -31863,7 +32338,8 @@
         <v>71</v>
       </c>
       <c r="T186">
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="U186">
         <v>324</v>
@@ -31928,7 +32404,8 @@
         <v>58</v>
       </c>
       <c r="T187">
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="U187">
         <v>324</v>
@@ -31993,7 +32470,8 @@
         <v>22</v>
       </c>
       <c r="T188">
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="U188">
         <v>324</v>
@@ -32058,7 +32536,8 @@
         <v>7</v>
       </c>
       <c r="T189">
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="U189">
         <v>283</v>
@@ -32123,7 +32602,8 @@
         <v>7</v>
       </c>
       <c r="T190">
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="U190">
         <v>283</v>
@@ -32188,7 +32668,8 @@
         <v>1</v>
       </c>
       <c r="T191">
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="U191">
         <v>283</v>
@@ -32253,7 +32734,8 @@
         <v>70</v>
       </c>
       <c r="T192">
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="U192">
         <v>283</v>
@@ -32318,7 +32800,8 @@
         <v>76</v>
       </c>
       <c r="T193">
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="U193">
         <v>283</v>
@@ -32383,7 +32866,8 @@
         <v>48</v>
       </c>
       <c r="T194">
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="U194">
         <v>283</v>
@@ -32448,7 +32932,8 @@
         <v>40</v>
       </c>
       <c r="T195">
-        <v>33</v>
+        <f t="shared" ref="T195:T258" si="3">COUNTIF(Q:Q,Q195)</f>
+        <v>8</v>
       </c>
       <c r="U195">
         <v>283</v>
@@ -32513,7 +32998,8 @@
         <v>34</v>
       </c>
       <c r="T196">
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="U196">
         <v>283</v>
@@ -32578,7 +33064,8 @@
         <v>8</v>
       </c>
       <c r="T197">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U197">
         <v>195</v>
@@ -32643,7 +33130,8 @@
         <v>4</v>
       </c>
       <c r="T198">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U198">
         <v>195</v>
@@ -32708,7 +33196,8 @@
         <v>1</v>
       </c>
       <c r="T199">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U199">
         <v>195</v>
@@ -32773,7 +33262,8 @@
         <v>63</v>
       </c>
       <c r="T200">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U200">
         <v>195</v>
@@ -32838,7 +33328,8 @@
         <v>49</v>
       </c>
       <c r="T201">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U201">
         <v>195</v>
@@ -32903,7 +33394,8 @@
         <v>36</v>
       </c>
       <c r="T202">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U202">
         <v>195</v>
@@ -32968,7 +33460,8 @@
         <v>34</v>
       </c>
       <c r="T203">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U203">
         <v>195</v>
@@ -33033,7 +33526,8 @@
         <v>10</v>
       </c>
       <c r="T204">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="U204">
         <v>168</v>
@@ -33098,7 +33592,8 @@
         <v>2</v>
       </c>
       <c r="T205">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="U205">
         <v>168</v>
@@ -33163,7 +33658,8 @@
         <v>4</v>
       </c>
       <c r="T206">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="U206">
         <v>168</v>
@@ -33228,7 +33724,8 @@
         <v>2</v>
       </c>
       <c r="T207">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="U207">
         <v>168</v>
@@ -33293,7 +33790,8 @@
         <v>50</v>
       </c>
       <c r="T208">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="U208">
         <v>168</v>
@@ -33358,7 +33856,8 @@
         <v>47</v>
       </c>
       <c r="T209">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="U209">
         <v>168</v>
@@ -33423,7 +33922,8 @@
         <v>29</v>
       </c>
       <c r="T210">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="U210">
         <v>168</v>
@@ -33488,7 +33988,8 @@
         <v>24</v>
       </c>
       <c r="T211">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="U211">
         <v>168</v>
@@ -33553,7 +34054,8 @@
         <v>5</v>
       </c>
       <c r="T212">
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U212">
         <v>102</v>
@@ -33618,7 +34120,8 @@
         <v>1</v>
       </c>
       <c r="T213">
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U213">
         <v>102</v>
@@ -33683,7 +34186,8 @@
         <v>42</v>
       </c>
       <c r="T214">
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U214">
         <v>102</v>
@@ -33748,7 +34252,8 @@
         <v>39</v>
       </c>
       <c r="T215">
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U215">
         <v>102</v>
@@ -33813,7 +34318,8 @@
         <v>15</v>
       </c>
       <c r="T216">
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U216">
         <v>102</v>
@@ -33878,7 +34384,8 @@
         <v>1</v>
       </c>
       <c r="T217">
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U217">
         <v>95</v>
@@ -33943,7 +34450,8 @@
         <v>1</v>
       </c>
       <c r="T218">
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U218">
         <v>95</v>
@@ -34008,7 +34516,8 @@
         <v>46</v>
       </c>
       <c r="T219">
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U219">
         <v>95</v>
@@ -34073,7 +34582,8 @@
         <v>25</v>
       </c>
       <c r="T220">
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U220">
         <v>95</v>
@@ -34138,7 +34648,8 @@
         <v>22</v>
       </c>
       <c r="T221">
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U221">
         <v>95</v>
@@ -34203,7 +34714,8 @@
         <v>1</v>
       </c>
       <c r="T222">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="U222">
         <v>75</v>
@@ -34268,7 +34780,8 @@
         <v>40</v>
       </c>
       <c r="T223">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="U223">
         <v>75</v>
@@ -34333,7 +34846,8 @@
         <v>34</v>
       </c>
       <c r="T224">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="U224">
         <v>75</v>
@@ -34398,7 +34912,8 @@
         <v>1</v>
       </c>
       <c r="T225">
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="U225">
         <v>94</v>
@@ -34463,7 +34978,8 @@
         <v>2</v>
       </c>
       <c r="T226">
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="U226">
         <v>94</v>
@@ -34528,7 +35044,8 @@
         <v>53</v>
       </c>
       <c r="T227">
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="U227">
         <v>94</v>
@@ -34593,7 +35110,8 @@
         <v>38</v>
       </c>
       <c r="T228">
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="U228">
         <v>94</v>
@@ -34658,7 +35176,8 @@
         <v>42</v>
       </c>
       <c r="T229">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U229">
         <v>42</v>
@@ -34723,7 +35242,8 @@
         <v>4</v>
       </c>
       <c r="T230">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="U230">
         <v>29</v>
@@ -34788,7 +35308,8 @@
         <v>25</v>
       </c>
       <c r="T231">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="U231">
         <v>29</v>
@@ -34853,6 +35374,7 @@
         <v>1</v>
       </c>
       <c r="T232">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U232">
@@ -34918,6 +35440,7 @@
         <v>1</v>
       </c>
       <c r="T233">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U233">
@@ -34983,7 +35506,8 @@
         <v>2</v>
       </c>
       <c r="T234">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U234">
         <v>2</v>
@@ -35048,7 +35572,8 @@
         <v>3</v>
       </c>
       <c r="T235">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="U235">
         <v>6</v>
@@ -35113,7 +35638,8 @@
         <v>2</v>
       </c>
       <c r="T236">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="U236">
         <v>6</v>
@@ -35178,7 +35704,8 @@
         <v>1</v>
       </c>
       <c r="T237">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="U237">
         <v>6</v>
@@ -35243,7 +35770,8 @@
         <v>2</v>
       </c>
       <c r="T238">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U238">
         <v>9</v>
@@ -35308,7 +35836,8 @@
         <v>1</v>
       </c>
       <c r="T239">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U239">
         <v>9</v>
@@ -35373,7 +35902,8 @@
         <v>1</v>
       </c>
       <c r="T240">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U240">
         <v>9</v>
@@ -35438,7 +35968,8 @@
         <v>4</v>
       </c>
       <c r="T241">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U241">
         <v>9</v>
@@ -35503,7 +36034,8 @@
         <v>1</v>
       </c>
       <c r="T242">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="U242">
         <v>9</v>
@@ -35568,7 +36100,8 @@
         <v>1</v>
       </c>
       <c r="T243">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U243">
         <v>11</v>
@@ -35633,7 +36166,8 @@
         <v>2</v>
       </c>
       <c r="T244">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U244">
         <v>11</v>
@@ -35698,7 +36232,8 @@
         <v>1</v>
       </c>
       <c r="T245">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U245">
         <v>11</v>
@@ -35763,7 +36298,8 @@
         <v>1</v>
       </c>
       <c r="T246">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U246">
         <v>11</v>
@@ -35828,7 +36364,8 @@
         <v>3</v>
       </c>
       <c r="T247">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U247">
         <v>11</v>
@@ -35893,7 +36430,8 @@
         <v>2</v>
       </c>
       <c r="T248">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U248">
         <v>11</v>
@@ -35958,7 +36496,8 @@
         <v>1</v>
       </c>
       <c r="T249">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="U249">
         <v>11</v>
@@ -36023,7 +36562,8 @@
         <v>4</v>
       </c>
       <c r="T250">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="U250">
         <v>11</v>
@@ -36088,7 +36628,8 @@
         <v>1</v>
       </c>
       <c r="T251">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="U251">
         <v>11</v>
@@ -36153,7 +36694,8 @@
         <v>1</v>
       </c>
       <c r="T252">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="U252">
         <v>11</v>
@@ -36218,7 +36760,8 @@
         <v>2</v>
       </c>
       <c r="T253">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="U253">
         <v>11</v>
@@ -36283,7 +36826,8 @@
         <v>2</v>
       </c>
       <c r="T254">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="U254">
         <v>11</v>
@@ -36348,7 +36892,8 @@
         <v>1</v>
       </c>
       <c r="T255">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="U255">
         <v>11</v>
@@ -36413,7 +36958,8 @@
         <v>1</v>
       </c>
       <c r="T256">
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="U256">
         <v>14</v>
@@ -36478,7 +37024,8 @@
         <v>1</v>
       </c>
       <c r="T257">
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="U257">
         <v>14</v>
@@ -36543,7 +37090,8 @@
         <v>1</v>
       </c>
       <c r="T258">
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="U258">
         <v>14</v>
@@ -36608,7 +37156,8 @@
         <v>1</v>
       </c>
       <c r="T259">
-        <v>14</v>
+        <f t="shared" ref="T259:T322" si="4">COUNTIF(Q:Q,Q259)</f>
+        <v>10</v>
       </c>
       <c r="U259">
         <v>14</v>
@@ -36673,7 +37222,8 @@
         <v>1</v>
       </c>
       <c r="T260">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="U260">
         <v>14</v>
@@ -36738,7 +37288,8 @@
         <v>2</v>
       </c>
       <c r="T261">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="U261">
         <v>14</v>
@@ -36803,7 +37354,8 @@
         <v>3</v>
       </c>
       <c r="T262">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="U262">
         <v>14</v>
@@ -36868,7 +37420,8 @@
         <v>2</v>
       </c>
       <c r="T263">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="U263">
         <v>14</v>
@@ -36933,7 +37486,8 @@
         <v>1</v>
       </c>
       <c r="T264">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="U264">
         <v>14</v>
@@ -36998,7 +37552,8 @@
         <v>1</v>
       </c>
       <c r="T265">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="U265">
         <v>14</v>
@@ -37063,7 +37618,8 @@
         <v>1</v>
       </c>
       <c r="T266">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="U266">
         <v>12</v>
@@ -37128,7 +37684,8 @@
         <v>2</v>
       </c>
       <c r="T267">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="U267">
         <v>12</v>
@@ -37193,7 +37750,8 @@
         <v>3</v>
       </c>
       <c r="T268">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="U268">
         <v>12</v>
@@ -37258,7 +37816,8 @@
         <v>2</v>
       </c>
       <c r="T269">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="U269">
         <v>12</v>
@@ -37323,7 +37882,8 @@
         <v>2</v>
       </c>
       <c r="T270">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="U270">
         <v>12</v>
@@ -37388,7 +37948,8 @@
         <v>1</v>
       </c>
       <c r="T271">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="U271">
         <v>12</v>
@@ -37453,7 +38014,8 @@
         <v>1</v>
       </c>
       <c r="T272">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="U272">
         <v>12</v>
@@ -37518,7 +38080,8 @@
         <v>1</v>
       </c>
       <c r="T273">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="U273">
         <v>13</v>
@@ -37583,7 +38146,8 @@
         <v>3</v>
       </c>
       <c r="T274">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="U274">
         <v>13</v>
@@ -37648,7 +38212,8 @@
         <v>3</v>
       </c>
       <c r="T275">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="U275">
         <v>13</v>
@@ -37713,7 +38278,8 @@
         <v>2</v>
       </c>
       <c r="T276">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="U276">
         <v>13</v>
@@ -37778,7 +38344,8 @@
         <v>2</v>
       </c>
       <c r="T277">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="U277">
         <v>13</v>
@@ -37843,7 +38410,8 @@
         <v>2</v>
       </c>
       <c r="T278">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="U278">
         <v>13</v>
@@ -37908,7 +38476,8 @@
         <v>4</v>
       </c>
       <c r="T279">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="U279">
         <v>12</v>
@@ -37973,7 +38542,8 @@
         <v>1</v>
       </c>
       <c r="T280">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="U280">
         <v>12</v>
@@ -38038,7 +38608,8 @@
         <v>2</v>
       </c>
       <c r="T281">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="U281">
         <v>12</v>
@@ -38103,7 +38674,8 @@
         <v>2</v>
       </c>
       <c r="T282">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="U282">
         <v>12</v>
@@ -38168,7 +38740,8 @@
         <v>1</v>
       </c>
       <c r="T283">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="U283">
         <v>12</v>
@@ -38233,7 +38806,8 @@
         <v>2</v>
       </c>
       <c r="T284">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="U284">
         <v>12</v>
@@ -38298,7 +38872,8 @@
         <v>3</v>
       </c>
       <c r="T285">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="U285">
         <v>25</v>
@@ -38363,7 +38938,8 @@
         <v>1</v>
       </c>
       <c r="T286">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="U286">
         <v>25</v>
@@ -38428,7 +39004,8 @@
         <v>1</v>
       </c>
       <c r="T287">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="U287">
         <v>25</v>
@@ -38493,7 +39070,8 @@
         <v>1</v>
       </c>
       <c r="T288">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="U288">
         <v>25</v>
@@ -38558,7 +39136,8 @@
         <v>5</v>
       </c>
       <c r="T289">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="U289">
         <v>25</v>
@@ -38623,7 +39202,8 @@
         <v>4</v>
       </c>
       <c r="T290">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="U290">
         <v>25</v>
@@ -38688,7 +39268,8 @@
         <v>4</v>
       </c>
       <c r="T291">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="U291">
         <v>25</v>
@@ -38753,7 +39334,8 @@
         <v>2</v>
       </c>
       <c r="T292">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="U292">
         <v>25</v>
@@ -38818,7 +39400,8 @@
         <v>2</v>
       </c>
       <c r="T293">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="U293">
         <v>25</v>
@@ -38883,7 +39466,8 @@
         <v>1</v>
       </c>
       <c r="T294">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="U294">
         <v>25</v>
@@ -38948,7 +39532,8 @@
         <v>1</v>
       </c>
       <c r="T295">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="U295">
         <v>25</v>
@@ -39013,7 +39598,8 @@
         <v>2</v>
       </c>
       <c r="T296">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U296">
         <v>15</v>
@@ -39078,7 +39664,8 @@
         <v>1</v>
       </c>
       <c r="T297">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U297">
         <v>15</v>
@@ -39143,7 +39730,8 @@
         <v>1</v>
       </c>
       <c r="T298">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U298">
         <v>15</v>
@@ -39208,7 +39796,8 @@
         <v>1</v>
       </c>
       <c r="T299">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U299">
         <v>15</v>
@@ -39273,7 +39862,8 @@
         <v>1</v>
       </c>
       <c r="T300">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U300">
         <v>15</v>
@@ -39338,7 +39928,8 @@
         <v>2</v>
       </c>
       <c r="T301">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U301">
         <v>15</v>
@@ -39403,7 +39994,8 @@
         <v>1</v>
       </c>
       <c r="T302">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U302">
         <v>15</v>
@@ -39468,7 +40060,8 @@
         <v>1</v>
       </c>
       <c r="T303">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U303">
         <v>15</v>
@@ -39533,7 +40126,8 @@
         <v>2</v>
       </c>
       <c r="T304">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U304">
         <v>15</v>
@@ -39598,7 +40192,8 @@
         <v>1</v>
       </c>
       <c r="T305">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U305">
         <v>15</v>
@@ -39663,7 +40258,8 @@
         <v>1</v>
       </c>
       <c r="T306">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U306">
         <v>15</v>
@@ -39728,7 +40324,8 @@
         <v>1</v>
       </c>
       <c r="T307">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U307">
         <v>15</v>
@@ -39793,7 +40390,8 @@
         <v>1</v>
       </c>
       <c r="T308">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="U308">
         <v>23</v>
@@ -39858,7 +40456,8 @@
         <v>1</v>
       </c>
       <c r="T309">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="U309">
         <v>23</v>
@@ -39923,7 +40522,8 @@
         <v>4</v>
       </c>
       <c r="T310">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="U310">
         <v>23</v>
@@ -39988,7 +40588,8 @@
         <v>3</v>
       </c>
       <c r="T311">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="U311">
         <v>23</v>
@@ -40053,7 +40654,8 @@
         <v>3</v>
       </c>
       <c r="T312">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="U312">
         <v>23</v>
@@ -40118,7 +40720,8 @@
         <v>2</v>
       </c>
       <c r="T313">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="U313">
         <v>23</v>
@@ -40183,7 +40786,8 @@
         <v>1</v>
       </c>
       <c r="T314">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="U314">
         <v>23</v>
@@ -40248,7 +40852,8 @@
         <v>1</v>
       </c>
       <c r="T315">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="U315">
         <v>23</v>
@@ -40313,7 +40918,8 @@
         <v>2</v>
       </c>
       <c r="T316">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="U316">
         <v>23</v>
@@ -40378,7 +40984,8 @@
         <v>2</v>
       </c>
       <c r="T317">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="U317">
         <v>23</v>
@@ -40443,7 +41050,8 @@
         <v>1</v>
       </c>
       <c r="T318">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="U318">
         <v>23</v>
@@ -40508,7 +41116,8 @@
         <v>1</v>
       </c>
       <c r="T319">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="U319">
         <v>23</v>
@@ -40573,7 +41182,8 @@
         <v>1</v>
       </c>
       <c r="T320">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="U320">
         <v>23</v>
@@ -40638,7 +41248,8 @@
         <v>1</v>
       </c>
       <c r="T321">
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="U321">
         <v>36</v>
@@ -40703,7 +41314,8 @@
         <v>3</v>
       </c>
       <c r="T322">
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="U322">
         <v>36</v>
@@ -40768,7 +41380,8 @@
         <v>2</v>
       </c>
       <c r="T323">
-        <v>28</v>
+        <f t="shared" ref="T323:T386" si="5">COUNTIF(Q:Q,Q323)</f>
+        <v>21</v>
       </c>
       <c r="U323">
         <v>36</v>
@@ -40833,7 +41446,8 @@
         <v>2</v>
       </c>
       <c r="T324">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U324">
         <v>36</v>
@@ -40898,7 +41512,8 @@
         <v>1</v>
       </c>
       <c r="T325">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U325">
         <v>36</v>
@@ -40963,7 +41578,8 @@
         <v>1</v>
       </c>
       <c r="T326">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U326">
         <v>36</v>
@@ -41028,7 +41644,8 @@
         <v>1</v>
       </c>
       <c r="T327">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U327">
         <v>36</v>
@@ -41093,7 +41710,8 @@
         <v>3</v>
       </c>
       <c r="T328">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U328">
         <v>36</v>
@@ -41158,7 +41776,8 @@
         <v>3</v>
       </c>
       <c r="T329">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U329">
         <v>36</v>
@@ -41223,7 +41842,8 @@
         <v>2</v>
       </c>
       <c r="T330">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U330">
         <v>36</v>
@@ -41288,7 +41908,8 @@
         <v>4</v>
       </c>
       <c r="T331">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U331">
         <v>36</v>
@@ -41353,7 +41974,8 @@
         <v>2</v>
       </c>
       <c r="T332">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U332">
         <v>36</v>
@@ -41418,7 +42040,8 @@
         <v>1</v>
       </c>
       <c r="T333">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U333">
         <v>36</v>
@@ -41483,7 +42106,8 @@
         <v>2</v>
       </c>
       <c r="T334">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U334">
         <v>36</v>
@@ -41548,7 +42172,8 @@
         <v>2</v>
       </c>
       <c r="T335">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U335">
         <v>36</v>
@@ -41613,7 +42238,8 @@
         <v>1</v>
       </c>
       <c r="T336">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U336">
         <v>36</v>
@@ -41678,7 +42304,8 @@
         <v>1</v>
       </c>
       <c r="T337">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U337">
         <v>36</v>
@@ -41743,7 +42370,8 @@
         <v>1</v>
       </c>
       <c r="T338">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U338">
         <v>36</v>
@@ -41808,7 +42436,8 @@
         <v>1</v>
       </c>
       <c r="T339">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U339">
         <v>36</v>
@@ -41873,7 +42502,8 @@
         <v>1</v>
       </c>
       <c r="T340">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U340">
         <v>36</v>
@@ -41938,7 +42568,8 @@
         <v>1</v>
       </c>
       <c r="T341">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U341">
         <v>36</v>
@@ -42003,7 +42634,8 @@
         <v>2</v>
       </c>
       <c r="T342">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U342">
         <v>24</v>
@@ -42068,7 +42700,8 @@
         <v>2</v>
       </c>
       <c r="T343">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U343">
         <v>24</v>
@@ -42133,7 +42766,8 @@
         <v>1</v>
       </c>
       <c r="T344">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U344">
         <v>24</v>
@@ -42198,7 +42832,8 @@
         <v>1</v>
       </c>
       <c r="T345">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U345">
         <v>24</v>
@@ -42263,7 +42898,8 @@
         <v>1</v>
       </c>
       <c r="T346">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U346">
         <v>24</v>
@@ -42328,7 +42964,8 @@
         <v>1</v>
       </c>
       <c r="T347">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U347">
         <v>24</v>
@@ -42393,7 +43030,8 @@
         <v>2</v>
       </c>
       <c r="T348">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U348">
         <v>24</v>
@@ -42458,7 +43096,8 @@
         <v>2</v>
       </c>
       <c r="T349">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U349">
         <v>24</v>
@@ -42523,7 +43162,8 @@
         <v>1</v>
       </c>
       <c r="T350">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U350">
         <v>24</v>
@@ -42588,7 +43228,8 @@
         <v>2</v>
       </c>
       <c r="T351">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U351">
         <v>24</v>
@@ -42653,7 +43294,8 @@
         <v>2</v>
       </c>
       <c r="T352">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U352">
         <v>24</v>
@@ -42718,7 +43360,8 @@
         <v>1</v>
       </c>
       <c r="T353">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U353">
         <v>24</v>
@@ -42783,7 +43426,8 @@
         <v>1</v>
       </c>
       <c r="T354">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U354">
         <v>24</v>
@@ -42848,7 +43492,8 @@
         <v>1</v>
       </c>
       <c r="T355">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U355">
         <v>24</v>
@@ -42913,7 +43558,8 @@
         <v>1</v>
       </c>
       <c r="T356">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U356">
         <v>24</v>
@@ -42978,7 +43624,8 @@
         <v>1</v>
       </c>
       <c r="T357">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U357">
         <v>24</v>
@@ -43043,7 +43690,8 @@
         <v>1</v>
       </c>
       <c r="T358">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U358">
         <v>24</v>
@@ -43108,7 +43756,8 @@
         <v>1</v>
       </c>
       <c r="T359">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U359">
         <v>24</v>
@@ -43173,7 +43822,8 @@
         <v>1</v>
       </c>
       <c r="T360">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="U360">
         <v>16</v>
@@ -43238,7 +43888,8 @@
         <v>1</v>
       </c>
       <c r="T361">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="U361">
         <v>16</v>
@@ -43303,7 +43954,8 @@
         <v>1</v>
       </c>
       <c r="T362">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="U362">
         <v>16</v>
@@ -43368,7 +44020,8 @@
         <v>2</v>
       </c>
       <c r="T363">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="U363">
         <v>16</v>
@@ -43433,7 +44086,8 @@
         <v>1</v>
       </c>
       <c r="T364">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="U364">
         <v>16</v>
@@ -43498,7 +44152,8 @@
         <v>1</v>
       </c>
       <c r="T365">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="U365">
         <v>16</v>
@@ -43563,7 +44218,8 @@
         <v>2</v>
       </c>
       <c r="T366">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="U366">
         <v>16</v>
@@ -43628,7 +44284,8 @@
         <v>3</v>
       </c>
       <c r="T367">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="U367">
         <v>16</v>
@@ -43693,7 +44350,8 @@
         <v>2</v>
       </c>
       <c r="T368">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="U368">
         <v>16</v>
@@ -43758,7 +44416,8 @@
         <v>1</v>
       </c>
       <c r="T369">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="U369">
         <v>16</v>
@@ -43823,7 +44482,8 @@
         <v>1</v>
       </c>
       <c r="T370">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="U370">
         <v>16</v>
@@ -43888,7 +44548,8 @@
         <v>1</v>
       </c>
       <c r="T371">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="U371">
         <v>19</v>
@@ -43953,7 +44614,8 @@
         <v>1</v>
       </c>
       <c r="T372">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="U372">
         <v>19</v>
@@ -44018,7 +44680,8 @@
         <v>2</v>
       </c>
       <c r="T373">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="U373">
         <v>19</v>
@@ -44083,7 +44746,8 @@
         <v>1</v>
       </c>
       <c r="T374">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="U374">
         <v>19</v>
@@ -44148,7 +44812,8 @@
         <v>1</v>
       </c>
       <c r="T375">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="U375">
         <v>19</v>
@@ -44213,7 +44878,8 @@
         <v>3</v>
       </c>
       <c r="T376">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="U376">
         <v>19</v>
@@ -44278,7 +44944,8 @@
         <v>1</v>
       </c>
       <c r="T377">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="U377">
         <v>19</v>
@@ -44343,7 +45010,8 @@
         <v>1</v>
       </c>
       <c r="T378">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="U378">
         <v>19</v>
@@ -44408,7 +45076,8 @@
         <v>2</v>
       </c>
       <c r="T379">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="U379">
         <v>19</v>
@@ -44473,7 +45142,8 @@
         <v>3</v>
       </c>
       <c r="T380">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="U380">
         <v>19</v>
@@ -44538,7 +45208,8 @@
         <v>1</v>
       </c>
       <c r="T381">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="U381">
         <v>19</v>
@@ -44603,7 +45274,8 @@
         <v>1</v>
       </c>
       <c r="T382">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="U382">
         <v>19</v>
@@ -44668,7 +45340,8 @@
         <v>1</v>
       </c>
       <c r="T383">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="U383">
         <v>19</v>
@@ -44733,7 +45406,8 @@
         <v>2</v>
       </c>
       <c r="T384">
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="U384">
         <v>24</v>
@@ -44798,7 +45472,8 @@
         <v>1</v>
       </c>
       <c r="T385">
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="U385">
         <v>24</v>
@@ -44863,7 +45538,8 @@
         <v>1</v>
       </c>
       <c r="T386">
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="U386">
         <v>24</v>
@@ -44928,7 +45604,8 @@
         <v>1</v>
       </c>
       <c r="T387">
-        <v>23</v>
+        <f t="shared" ref="T387:T450" si="6">COUNTIF(Q:Q,Q387)</f>
+        <v>16</v>
       </c>
       <c r="U387">
         <v>24</v>
@@ -44993,7 +45670,8 @@
         <v>2</v>
       </c>
       <c r="T388">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="U388">
         <v>24</v>
@@ -45058,7 +45736,8 @@
         <v>1</v>
       </c>
       <c r="T389">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="U389">
         <v>24</v>
@@ -45123,7 +45802,8 @@
         <v>2</v>
       </c>
       <c r="T390">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="U390">
         <v>24</v>
@@ -45188,7 +45868,8 @@
         <v>1</v>
       </c>
       <c r="T391">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="U391">
         <v>24</v>
@@ -45253,7 +45934,8 @@
         <v>1</v>
       </c>
       <c r="T392">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="U392">
         <v>24</v>
@@ -45318,7 +46000,8 @@
         <v>2</v>
       </c>
       <c r="T393">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="U393">
         <v>24</v>
@@ -45383,7 +46066,8 @@
         <v>2</v>
       </c>
       <c r="T394">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="U394">
         <v>24</v>
@@ -45448,7 +46132,8 @@
         <v>2</v>
       </c>
       <c r="T395">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="U395">
         <v>24</v>
@@ -45513,7 +46198,8 @@
         <v>2</v>
       </c>
       <c r="T396">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="U396">
         <v>24</v>
@@ -45578,7 +46264,8 @@
         <v>2</v>
       </c>
       <c r="T397">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="U397">
         <v>24</v>
@@ -45643,7 +46330,8 @@
         <v>1</v>
       </c>
       <c r="T398">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="U398">
         <v>24</v>
@@ -45708,7 +46396,8 @@
         <v>1</v>
       </c>
       <c r="T399">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="U399">
         <v>24</v>
@@ -45773,7 +46462,8 @@
         <v>1</v>
       </c>
       <c r="T400">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="U400">
         <v>18</v>
@@ -45838,7 +46528,8 @@
         <v>2</v>
       </c>
       <c r="T401">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="U401">
         <v>18</v>
@@ -45903,7 +46594,8 @@
         <v>2</v>
       </c>
       <c r="T402">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="U402">
         <v>18</v>
@@ -45968,7 +46660,8 @@
         <v>3</v>
       </c>
       <c r="T403">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="U403">
         <v>18</v>
@@ -46033,7 +46726,8 @@
         <v>1</v>
       </c>
       <c r="T404">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="U404">
         <v>18</v>
@@ -46098,7 +46792,8 @@
         <v>1</v>
       </c>
       <c r="T405">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="U405">
         <v>18</v>
@@ -46163,7 +46858,8 @@
         <v>2</v>
       </c>
       <c r="T406">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="U406">
         <v>18</v>
@@ -46228,7 +46924,8 @@
         <v>1</v>
       </c>
       <c r="T407">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="U407">
         <v>18</v>
@@ -46293,7 +46990,8 @@
         <v>2</v>
       </c>
       <c r="T408">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="U408">
         <v>18</v>
@@ -46358,7 +47056,8 @@
         <v>1</v>
       </c>
       <c r="T409">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="U409">
         <v>18</v>
@@ -46423,7 +47122,8 @@
         <v>1</v>
       </c>
       <c r="T410">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="U410">
         <v>18</v>
@@ -46488,7 +47188,8 @@
         <v>1</v>
       </c>
       <c r="T411">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="U411">
         <v>18</v>
@@ -46553,7 +47254,8 @@
         <v>1</v>
       </c>
       <c r="T412">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="U412">
         <v>12</v>
@@ -46618,7 +47320,8 @@
         <v>2</v>
       </c>
       <c r="T413">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="U413">
         <v>12</v>
@@ -46683,7 +47386,8 @@
         <v>2</v>
       </c>
       <c r="T414">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="U414">
         <v>12</v>
@@ -46748,7 +47452,8 @@
         <v>1</v>
       </c>
       <c r="T415">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="U415">
         <v>12</v>
@@ -46813,7 +47518,8 @@
         <v>2</v>
       </c>
       <c r="T416">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="U416">
         <v>12</v>
@@ -46878,7 +47584,8 @@
         <v>1</v>
       </c>
       <c r="T417">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="U417">
         <v>12</v>
@@ -46943,7 +47650,8 @@
         <v>1</v>
       </c>
       <c r="T418">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="U418">
         <v>12</v>
@@ -47008,7 +47716,8 @@
         <v>1</v>
       </c>
       <c r="T419">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="U419">
         <v>12</v>
@@ -47073,7 +47782,8 @@
         <v>1</v>
       </c>
       <c r="T420">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="U420">
         <v>12</v>
@@ -47138,7 +47848,8 @@
         <v>2</v>
       </c>
       <c r="T421">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U421">
         <v>20</v>
@@ -47203,7 +47914,8 @@
         <v>1</v>
       </c>
       <c r="T422">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U422">
         <v>20</v>
@@ -47268,7 +47980,8 @@
         <v>1</v>
       </c>
       <c r="T423">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U423">
         <v>20</v>
@@ -47333,7 +48046,8 @@
         <v>1</v>
       </c>
       <c r="T424">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U424">
         <v>20</v>
@@ -47398,7 +48112,8 @@
         <v>2</v>
       </c>
       <c r="T425">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U425">
         <v>20</v>
@@ -47463,7 +48178,8 @@
         <v>2</v>
       </c>
       <c r="T426">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U426">
         <v>20</v>
@@ -47528,7 +48244,8 @@
         <v>1</v>
       </c>
       <c r="T427">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U427">
         <v>20</v>
@@ -47593,7 +48310,8 @@
         <v>1</v>
       </c>
       <c r="T428">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U428">
         <v>20</v>
@@ -47658,7 +48376,8 @@
         <v>3</v>
       </c>
       <c r="T429">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U429">
         <v>20</v>
@@ -47723,7 +48442,8 @@
         <v>3</v>
       </c>
       <c r="T430">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U430">
         <v>20</v>
@@ -47788,7 +48508,8 @@
         <v>1</v>
       </c>
       <c r="T431">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U431">
         <v>20</v>
@@ -47853,7 +48574,8 @@
         <v>1</v>
       </c>
       <c r="T432">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U432">
         <v>20</v>
@@ -47918,7 +48640,8 @@
         <v>1</v>
       </c>
       <c r="T433">
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U433">
         <v>20</v>
@@ -47983,7 +48706,8 @@
         <v>1</v>
       </c>
       <c r="T434">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U434">
         <v>18</v>
@@ -48048,7 +48772,8 @@
         <v>2</v>
       </c>
       <c r="T435">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U435">
         <v>18</v>
@@ -48113,7 +48838,8 @@
         <v>2</v>
       </c>
       <c r="T436">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U436">
         <v>18</v>
@@ -48178,7 +48904,8 @@
         <v>3</v>
       </c>
       <c r="T437">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U437">
         <v>18</v>
@@ -48243,7 +48970,8 @@
         <v>1</v>
       </c>
       <c r="T438">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U438">
         <v>18</v>
@@ -48308,7 +49036,8 @@
         <v>1</v>
       </c>
       <c r="T439">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U439">
         <v>18</v>
@@ -48373,7 +49102,8 @@
         <v>2</v>
       </c>
       <c r="T440">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U440">
         <v>18</v>
@@ -48438,7 +49168,8 @@
         <v>1</v>
       </c>
       <c r="T441">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U441">
         <v>18</v>
@@ -48503,7 +49234,8 @@
         <v>1</v>
       </c>
       <c r="T442">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U442">
         <v>18</v>
@@ -48568,7 +49300,8 @@
         <v>1</v>
       </c>
       <c r="T443">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U443">
         <v>18</v>
@@ -48633,7 +49366,8 @@
         <v>1</v>
       </c>
       <c r="T444">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U444">
         <v>18</v>
@@ -48698,7 +49432,8 @@
         <v>1</v>
       </c>
       <c r="T445">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U445">
         <v>18</v>
@@ -48763,7 +49498,8 @@
         <v>1</v>
       </c>
       <c r="T446">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="U446">
         <v>18</v>
@@ -48828,7 +49564,8 @@
         <v>1</v>
       </c>
       <c r="T447">
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="U447">
         <v>19</v>
@@ -48893,7 +49630,8 @@
         <v>1</v>
       </c>
       <c r="T448">
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="U448">
         <v>19</v>
@@ -48958,7 +49696,8 @@
         <v>1</v>
       </c>
       <c r="T449">
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="U449">
         <v>19</v>
@@ -49023,7 +49762,8 @@
         <v>1</v>
       </c>
       <c r="T450">
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="U450">
         <v>19</v>
@@ -49088,7 +49828,8 @@
         <v>1</v>
       </c>
       <c r="T451">
-        <v>16</v>
+        <f t="shared" ref="T451:T492" si="7">COUNTIF(Q:Q,Q451)</f>
+        <v>15</v>
       </c>
       <c r="U451">
         <v>19</v>
@@ -49153,7 +49894,8 @@
         <v>3</v>
       </c>
       <c r="T452">
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="U452">
         <v>19</v>
@@ -49218,7 +49960,8 @@
         <v>2</v>
       </c>
       <c r="T453">
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="U453">
         <v>19</v>
@@ -49283,7 +50026,8 @@
         <v>2</v>
       </c>
       <c r="T454">
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="U454">
         <v>19</v>
@@ -49348,7 +50092,8 @@
         <v>1</v>
       </c>
       <c r="T455">
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="U455">
         <v>19</v>
@@ -49413,7 +50158,8 @@
         <v>1</v>
       </c>
       <c r="T456">
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="U456">
         <v>19</v>
@@ -49478,7 +50224,8 @@
         <v>1</v>
       </c>
       <c r="T457">
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="U457">
         <v>19</v>
@@ -49543,7 +50290,8 @@
         <v>1</v>
       </c>
       <c r="T458">
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="U458">
         <v>19</v>
@@ -49608,7 +50356,8 @@
         <v>1</v>
       </c>
       <c r="T459">
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="U459">
         <v>19</v>
@@ -49673,7 +50422,8 @@
         <v>1</v>
       </c>
       <c r="T460">
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="U460">
         <v>19</v>
@@ -49738,7 +50488,8 @@
         <v>1</v>
       </c>
       <c r="T461">
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="U461">
         <v>19</v>
@@ -49803,6 +50554,7 @@
         <v>1</v>
       </c>
       <c r="T462">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="U462">
@@ -49868,6 +50620,7 @@
         <v>1</v>
       </c>
       <c r="T463">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="U463">
@@ -49933,6 +50686,7 @@
         <v>1</v>
       </c>
       <c r="T464">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="U464">
@@ -49998,6 +50752,7 @@
         <v>1</v>
       </c>
       <c r="T465">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="U465">
@@ -50063,7 +50818,8 @@
         <v>2</v>
       </c>
       <c r="T466">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="U466">
         <v>5</v>
@@ -50128,7 +50884,8 @@
         <v>1</v>
       </c>
       <c r="T467">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="U467">
         <v>5</v>
@@ -50193,7 +50950,8 @@
         <v>1</v>
       </c>
       <c r="T468">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="U468">
         <v>5</v>
@@ -50258,7 +51016,8 @@
         <v>1</v>
       </c>
       <c r="T469">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="U469">
         <v>5</v>
@@ -50323,6 +51082,7 @@
         <v>1</v>
       </c>
       <c r="T470">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U470">
@@ -50388,6 +51148,7 @@
         <v>1</v>
       </c>
       <c r="T471">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U471">
@@ -50453,6 +51214,7 @@
         <v>1</v>
       </c>
       <c r="T472">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="U472">
@@ -50518,6 +51280,7 @@
         <v>1</v>
       </c>
       <c r="T473">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="U473">
@@ -50583,6 +51346,7 @@
         <v>1</v>
       </c>
       <c r="T474">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="U474">
@@ -50648,6 +51412,7 @@
         <v>1</v>
       </c>
       <c r="T475">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="U475">
@@ -50713,6 +51478,7 @@
         <v>1</v>
       </c>
       <c r="T476">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="U476">
@@ -50778,6 +51544,7 @@
         <v>1</v>
       </c>
       <c r="T477">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="U477">
@@ -50843,6 +51610,7 @@
         <v>1</v>
       </c>
       <c r="T478">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="U478">
@@ -50908,6 +51676,7 @@
         <v>1</v>
       </c>
       <c r="T479">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="U479">
@@ -50973,6 +51742,7 @@
         <v>1</v>
       </c>
       <c r="T480">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="U480">
@@ -51038,6 +51808,7 @@
         <v>1</v>
       </c>
       <c r="T481">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U481">
@@ -51103,6 +51874,7 @@
         <v>1</v>
       </c>
       <c r="T482">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U482">
@@ -51168,6 +51940,7 @@
         <v>1</v>
       </c>
       <c r="T483">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U483">
@@ -51233,6 +52006,7 @@
         <v>1</v>
       </c>
       <c r="T484">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U484">
@@ -51298,6 +52072,7 @@
         <v>1</v>
       </c>
       <c r="T485">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U485">
@@ -51363,6 +52138,7 @@
         <v>1</v>
       </c>
       <c r="T486">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U486">
@@ -51428,6 +52204,7 @@
         <v>1</v>
       </c>
       <c r="T487">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U487">
@@ -51493,6 +52270,7 @@
         <v>1</v>
       </c>
       <c r="T488">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U488">
@@ -51558,6 +52336,7 @@
         <v>1</v>
       </c>
       <c r="T489">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U489">
@@ -51623,6 +52402,7 @@
         <v>1</v>
       </c>
       <c r="T490">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U490">
@@ -51688,6 +52468,7 @@
         <v>1</v>
       </c>
       <c r="T491">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U491">
@@ -51753,6 +52534,7 @@
         <v>1</v>
       </c>
       <c r="T492">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U492">

--- a/temperature_data.xlsx
+++ b/temperature_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb829048448cf286/Documenti/GitHub/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="949" documentId="8_{4E5F954D-28B4-4E76-871B-906B9CA53746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1431990D-ED00-468A-9BB4-F858787DA732}"/>
+  <xr:revisionPtr revIDLastSave="950" documentId="8_{4E5F954D-28B4-4E76-871B-906B9CA53746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D2AAF2-3825-4966-958A-B788ADBEE8E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F0636C89-0B81-4ACC-A9C5-CB99DC8F8EB4}"/>
   </bookViews>
@@ -18108,8 +18108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA3DD89-8C3E-4214-B70B-5D258C932D4C}">
   <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18130,7 +18130,7 @@
         <v>-801.5</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1319</v>
